--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,8 +513,6 @@
           <t>sources/academic/1-s2.0-S0950329325002836-main.pdf</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -525,7 +523,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -548,8 +545,6 @@
           <t>sources/academic/2010_8_farm20animal20welfare_consumer20wtp20and20trust.pdf</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -560,7 +555,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -583,8 +577,6 @@
           <t>sources/academic/2023-Vet-Reference-Guide.pdf</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -595,7 +587,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -618,8 +609,6 @@
           <t>sources/academic/A Randomized Double Blinded Placebo-Controlled Clinical Trial of a Probiotic or Metronidazole for Acute Canine Diarrhea.pdf</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -630,7 +619,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -653,8 +641,6 @@
           <t>sources/academic/A meta-analysis of Lactobacillus-based probiotics for growth performance and intestinal morphology in piglets.pdf</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -665,7 +651,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -688,8 +673,6 @@
           <t>sources/academic/Abd El-Hack ME et al. “Alternatives to antibiotics for organic poultry production” Poultry Science 2022..pdf</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -700,7 +683,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -723,8 +705,6 @@
           <t>sources/academic/Alternatives to antibiotics for organic poultry production- types, modes of action and impacts on bird’s health and production.pdf</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -735,7 +715,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -758,8 +737,6 @@
           <t>sources/academic/An open-label prospective study of the use of L-theanine (Anxitane) in storm-sensitive client-owned dogs.pdf</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -770,7 +747,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -793,8 +769,6 @@
           <t>sources/academic/Antihypertensive and Neuroprotective Effects of Astaxanthin in Experimental Animals.pdf</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -805,7 +779,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -828,8 +801,6 @@
           <t>sources/academic/Astaxanthin as feed supplement in aquatic animals.pdf</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -840,7 +811,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -863,8 +833,6 @@
           <t>sources/academic/Astaxanthin for the Food Industry.pdf</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -875,7 +843,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,8 +865,6 @@
           <t>sources/academic/Ban on antibiotics as growth promoters in animal feed enters into effect.pdf</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -910,7 +875,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -933,8 +897,6 @@
           <t>sources/academic/Bioactive immunostimulants as health-promoting feed additives in aquaculture- A review .pdf</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -945,7 +907,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -968,8 +929,6 @@
           <t>sources/academic/CELEX_32019R0006_EN_TXT.pdf</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -980,7 +939,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1003,8 +961,6 @@
           <t>sources/academic/CLASSIFICATION, REGULATORY ACTS AND APPLICATIONS OF NUTRACEUTICALS FOR HEALTH.pdf</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1015,7 +971,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1038,8 +993,6 @@
           <t>sources/academic/Changing Conceptions of Care.pdf</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1050,7 +1003,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1073,8 +1025,6 @@
           <t>sources/academic/Developments in world aquaculture, feed formulations, and role of carotenoids .pdf</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1085,7 +1035,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1108,8 +1057,6 @@
           <t>sources/academic/Effects in dogs with behavioural disorders of a commercial nutraceutical diet on stress and neuroendocrine parameters.pdf</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1120,7 +1067,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1143,8 +1089,6 @@
           <t>sources/academic/Efficacy of Nutraceuticals and Supplements in Animal Health.pdf</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1155,7 +1099,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1178,8 +1121,6 @@
           <t>sources/academic/European regulations on the use of antibiotics in veterinary medicine .pdf</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1190,7 +1131,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1213,8 +1153,6 @@
           <t>sources/academic/Evaluation of the effects of dietary supplementation with fish oil omega-3 fatty acids on weight bearing in dogs with osteoarthritis.pdf</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1225,7 +1163,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1248,8 +1185,6 @@
           <t>sources/academic/Exploring the role of nutraceuticals in enhancing animal nutrition.pdf</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1260,7 +1195,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1283,8 +1217,6 @@
           <t>sources/academic/FEDIAF-Facts-Figures-2025.pdf</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1295,7 +1227,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1318,8 +1249,6 @@
           <t>sources/academic/Fish Nutrition and Current Issues in Aquaculture- The Balance in Providing Safe and Nutritious Seafood, in an Environmentally Sustainable Manner.pdf</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1330,7 +1259,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1353,8 +1281,6 @@
           <t>sources/academic/French surveillance network for antimicrobial resistance in bacteria from diseased animals.pdf</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1365,7 +1291,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1388,8 +1313,6 @@
           <t>sources/academic/Guidelines on the Safe Use of NSAIDS - WSAVA 2016 Congress - VIN.pdf</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1400,7 +1323,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1423,8 +1345,6 @@
           <t>sources/academic/Ibeagha-Awemu EM et al. “Alternatives to antibiotics for sustainable livestock production” Front Vet Sci 2025..pdf</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1435,7 +1355,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1458,8 +1377,6 @@
           <t>sources/academic/LABO-Ra-Resapath2023-EN.pdf</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1470,7 +1387,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1493,8 +1409,6 @@
           <t>sources/academic/Murugesan GR et al. “Phytogenic feed additives as alternatives to antibiotic growth promoters in poultry and swine” Front Vet Sci 2015..pdf</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1505,7 +1419,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1528,8 +1441,6 @@
           <t>sources/academic/Médicaments antimicrobiens chez l’animal .pdf</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1540,7 +1451,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1563,8 +1473,6 @@
           <t>sources/academic/Non-Steroidal Anti-Inflammatory Drugs and Associated Toxicities in Horses.pdf</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1575,7 +1483,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1598,8 +1505,6 @@
           <t>sources/academic/Nutraceuticals in Veterinary Medicine.pdf</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1610,7 +1515,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1633,8 +1537,6 @@
           <t>sources/academic/Nutraceuticals in joint health- animal models as instrumental tools.pdf</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1645,7 +1547,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1668,8 +1569,6 @@
           <t>sources/academic/Nutraceuticals, Social Interaction, and Psychophysiological Influence on Pet Health and Well-Being- Focus on Dogs and Cats.pdf</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1680,7 +1579,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1703,8 +1601,6 @@
           <t>sources/academic/Nutraceuticals- a goldmine but for whom?.pdf</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1715,7 +1611,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1738,8 +1633,6 @@
           <t>sources/academic/Overview on Microbial Enzymatic Production of Algal Oligosaccharides for Nutraceutical Applications.pdf</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1750,7 +1643,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1773,8 +1665,6 @@
           <t>sources/academic/Phytogenic Feed Additives in Poultry- Achievements, Prospective and Challenges.pdf</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1785,7 +1675,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1808,8 +1697,6 @@
           <t>sources/academic/Recent progress in practical applications of a potential carotenoid astaxanthin in aquaculture industry- a review.pdf</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1820,7 +1707,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1843,8 +1729,6 @@
           <t>sources/academic/Systematic review of clinical trials of treatments for osteoarthritis in dogs.pdf</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1855,7 +1739,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1878,8 +1761,6 @@
           <t>sources/academic/The Safety and Efficacy in Horses of Certain Nutraceuticals that Claim to Have Health Benefits.pdf</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1890,7 +1771,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1913,8 +1793,6 @@
           <t>sources/academic/The Use of Nutraceuticals for Osteoarthritis in Horses.pdf</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1925,7 +1803,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1948,8 +1825,6 @@
           <t>sources/academic/The role of glucosamine and chondroitin sulfate in treatment for and prevention of osteoarthritis in animals.pdf</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1960,7 +1835,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1983,8 +1857,6 @@
           <t>sources/academic/WSAVA_List_of_Essential_Medicines_for_Cats_and_Dogs_final.pdf</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -1995,7 +1867,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2018,8 +1889,6 @@
           <t>sources/academic/Wang J et al. “Phytogenic feed additives as natural antibiotic alternatives in poultry nutrition”.pdf</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2030,7 +1899,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2053,8 +1921,6 @@
           <t>sources/academic/Willingness to pay and moral stance- The case of farm animal welfare in Germany.pdf</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2065,7 +1931,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2088,8 +1953,6 @@
           <t>sources/academic/Withdrawal of AGP.pdf</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2100,7 +1963,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2123,8 +1985,6 @@
           <t>sources/academic/fvets-06-00163.pdf</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2135,7 +1995,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2158,8 +2017,6 @@
           <t>sources/academic/idowu-et-al.-2025-liab.pdf</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2170,7 +2027,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2193,8 +2049,6 @@
           <t>sources/datasets/20250115_SelectedList_Nutraceuticals.xlsx</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2205,7 +2059,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2228,8 +2081,6 @@
           <t>sources/datasets/Antibiotic_use_by_species_and_nutraceutical_opportunity.xlsx</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2240,7 +2091,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2263,8 +2113,6 @@
           <t>sources/datasets/Complete_Demographics_Data_Sources.xlsx</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2275,7 +2123,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2298,8 +2145,6 @@
           <t>sources/datasets/EU_US_Global_Antibiotic_Use_Data.xlsx</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2310,7 +2155,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2333,8 +2177,6 @@
           <t>sources/datasets/Figure11_Formats.csv</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2345,7 +2187,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2368,8 +2209,6 @@
           <t>sources/datasets/Figure12_Wallet.csv</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2380,7 +2219,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2403,8 +2241,6 @@
           <t>sources/datasets/Figure13_Segmentation.csv</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2415,7 +2251,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2438,8 +2273,6 @@
           <t>sources/datasets/Figure14_Psychology.csv</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2450,7 +2283,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2473,8 +2305,6 @@
           <t>sources/datasets/Figure15_Mobility_Evo.csv</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2485,7 +2315,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2508,8 +2337,6 @@
           <t>sources/datasets/Figure16_Senior_Growth.csv</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2520,7 +2347,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2543,8 +2369,6 @@
           <t>sources/datasets/Figure17_Value_Chain.csv</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2555,7 +2379,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2578,8 +2401,6 @@
           <t>sources/datasets/Figure18_Channel_Economics.csv</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2590,7 +2411,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2613,8 +2433,6 @@
           <t>sources/datasets/Figure19_Value_Waterfall.csv</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2625,7 +2443,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2648,8 +2465,6 @@
           <t>sources/datasets/Figure1_Pet_Ownership.csv</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2660,7 +2475,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2683,8 +2497,6 @@
           <t>sources/datasets/Figure20_Risk_Reward.csv</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2695,7 +2507,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2718,8 +2529,6 @@
           <t>sources/datasets/Figure21_Pharma_Funnel.csv</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2730,7 +2539,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2753,8 +2561,6 @@
           <t>sources/datasets/Figure2_EU_Pet_Pop.csv</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2765,7 +2571,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2788,8 +2593,6 @@
           <t>sources/datasets/Figure3_EU_Growth.csv</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2800,7 +2603,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2823,8 +2625,6 @@
           <t>sources/datasets/Figure4_Regional_Market.csv</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2835,7 +2635,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2858,8 +2657,6 @@
           <t>sources/datasets/Figure5_Probiotics_Share.csv</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2870,7 +2667,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2893,8 +2689,6 @@
           <t>sources/datasets/Figure6_Poultry_HPAI.csv</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2905,7 +2699,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2928,8 +2721,6 @@
           <t>sources/datasets/Figure7_Swine_Decline.csv</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2940,7 +2731,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2963,8 +2753,6 @@
           <t>sources/datasets/Figure8_Cattle_Inventory.csv</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -2975,7 +2763,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2998,8 +2785,6 @@
           <t>sources/datasets/Figure9_Livestock_Trends.csv</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3010,7 +2795,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3033,8 +2817,6 @@
           <t>sources/datasets/L-Theanine_Companies_Animal_Use.xlsx</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3045,7 +2827,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3068,8 +2849,6 @@
           <t>sources/datasets/Livestock_Both_Regions_Data_Sources.xlsx</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3080,7 +2859,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3103,8 +2881,6 @@
           <t>sources/datasets/Livestock_Breeding_EU_vs_USA_Data.xlsx</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3115,7 +2891,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3138,8 +2913,6 @@
           <t>sources/datasets/Livestock_Segment_Complete_Data_Sources.xlsx</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3150,7 +2923,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3173,8 +2945,6 @@
           <t>sources/datasets/Matrix_Efficacy.csv</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3185,7 +2955,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3208,8 +2977,6 @@
           <t>sources/datasets/Matrix_Species_Functional.csv</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3220,7 +2987,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3243,8 +3009,6 @@
           <t>sources/datasets/Nutraceuticals_Data_Tables.xlsx</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3255,7 +3019,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3278,8 +3041,6 @@
           <t>sources/datasets/Nutraceuticals_Delivery_Formats_Data.xlsx</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3290,7 +3051,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3313,8 +3073,6 @@
           <t>sources/datasets/Nutraceuticals_Functional_Segments_Data.xlsx</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3325,7 +3083,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3348,8 +3105,6 @@
           <t>sources/datasets/Pet_Adoption_Analysis_Complete_Data_Sources.xlsx</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3360,7 +3115,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3383,8 +3137,6 @@
           <t>sources/datasets/Pet_Ownership_Market_Data_Sourced.xlsx</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3395,7 +3147,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3418,8 +3169,6 @@
           <t>sources/datasets/Section_V_Demographics_Complete_Data_Sources.xlsx</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3430,7 +3179,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3453,8 +3201,6 @@
           <t>sources/datasets/Table_US_vs_EU.csv</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3465,7 +3211,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3488,8 +3233,6 @@
           <t>sources/datasets/Timeline_Regulations.csv</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3500,7 +3243,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3523,8 +3265,6 @@
           <t>sources/datasets/Value_Chain_Companies.xlsx</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3535,7 +3275,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3558,8 +3297,6 @@
           <t>sources/datasets/WTP_Animal_Welfare_Data_Sources.xlsx</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3570,7 +3307,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3593,8 +3329,6 @@
           <t>sources/datasets/Whitepaper_Master_Data.xlsx</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3605,7 +3339,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3628,8 +3361,6 @@
           <t>sources/datasets/animal_nutraceutical_manufacturers_table.xlsx</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3640,7 +3371,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3663,8 +3393,6 @@
           <t>sources/datasets/company_profiles_nutraceuticals_positioning.xlsx</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3675,7 +3403,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3698,8 +3425,6 @@
           <t>sources/datasets/company_profiles_nutraceuticals_positioning_with_product_names.xlsx</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3710,7 +3435,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3733,8 +3457,6 @@
           <t>sources/datasets/company_profiles_with_segments.xlsx</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3745,7 +3467,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3768,8 +3489,6 @@
           <t>sources/datasets/fichier neutraceutiques France V2 .xlsx</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3780,7 +3499,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3803,8 +3521,6 @@
           <t>sources/internal/20251203_list_nutraceuticals.xlsx</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3815,7 +3531,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3838,8 +3553,6 @@
           <t>sources/internal/20251207_Shortlist.xlsx</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3850,7 +3563,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3873,8 +3585,6 @@
           <t>sources/internal/20251217_SelectedList_Nutraceuticals.xlsx</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3885,7 +3595,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3908,8 +3617,6 @@
           <t>sources/internal/20251222_Liste_Companies_Supplement.xlsx</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3920,7 +3627,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3943,8 +3649,6 @@
           <t>sources/internal/20260115_VC_PE_Portfolio.xlsx</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3955,7 +3659,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3978,8 +3681,6 @@
           <t>sources/internal/Companies to contact 2 to merge.xlsx</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -3990,7 +3691,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4013,8 +3713,6 @@
           <t>sources/internal/Companies to contact to merge.xlsx</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4025,7 +3723,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4048,8 +3745,6 @@
           <t>sources/internal/Companies to contact.xlsx</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4060,7 +3755,6 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4083,8 +3777,6 @@
           <t>sources/internal/VC_PE_Portfolio.xlsx</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4095,7 +3787,635 @@
           <t>Agent</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>S104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Grand View Research 2024</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Market Report</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Animal Health Market Size &amp; Share Analysis Report, 2030</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Grand View Research</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>S105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Euromonitor 2024</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Market Report</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Pet Care Global Market Data 2024</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Euromonitor International</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>S106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>NBJ 2023</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Market Report</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Supplement Business Report 2023</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Nutrition Business Journal</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>S107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Future Market Insights 2024</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Market Report</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Animal Feed Additives Market Outlook</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Future Market Insights</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>S108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MarketsandMarkets 2023</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Market Report</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Probiotics in Animal Feed Market - Global Forecast to 2028</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>MarketsandMarkets</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>S109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>FEDIAF 2024</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Industry Report</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>European Pet Food Industry: Facts &amp; Figures 2023</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>FEDIAF</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>S110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>APPA 2024</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Industry Report</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>National Pet Owners Survey (2023-2024)</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>American Pet Products Association</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>S111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>FAO SOFIA 2024</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Industry Report</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>The State of World Fisheries and Aquaculture (SOFIA) 2024</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>FAO</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>S112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Eurostat 2024</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Government Data</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Agricultural Production - Livestock and Meat (2023 Data)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Eurostat</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>S113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mordor Intelligence 2024</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Market Report</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Global Animal Nutraceuticals Market Size &amp; Share Analysis</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Mordor Intelligence</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>S114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Nicotra et al 2025</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Scientific Paper</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Nutraceuticals, Social Interaction, and Psychophysiological Influence on Pet Health</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Nicotra, M., et al.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>S115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Zoetis 10-K</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Corporate Filing</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Form 10-K</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Zoetis Inc.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2023-2025</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>S116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Elanco Investor Deck</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Corporate Filing</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Investor Presentations</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Elanco Animal Health</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2023-2025</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>S117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DSM-Firmenich Annual</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Corporate Filing</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Integrated Annual Report</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>DSM-Firmenich</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2023-2025</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Swedencare Annual</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Corporate Filing</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Year-End Report</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Swedencare</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2023-2025</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>S119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Virbac Annual</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Corporate Filing</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Annual Financial Report</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Virbac</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2023-2025</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>S120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Dechra Annual</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Corporate Filing</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Annual Report</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Dechra Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2023-2025</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4108,7 +4428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4172,6 +4492,2079 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Global animal nutraceutical market valued at $13+ billion (Sum of Pet + Livestock segments)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tab: Figure 4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Matches SAM value in Figure 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Trajectory-bound for $18–24 billion by 2035 (CAGR ~5–7%)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S104</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Could not find specific 2035 forecast source. 2035 forecast from Grand View Research Animal Health Market Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pet Economy (~$6B)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Figure 4 Regional Market sums to 6.0B. Valuation range based on M&amp;A transaction analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Proven therapeutic efficacy commands valuations of 15–20x EBITDA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Likely in VC/PE Portfolio but file read failed. Calculated from TAM-SAM spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Livestock Economy (~$7B)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Derived from 13-6. S039 has 8B for Livestock Premix. Valuation range based on livestock sector M&amp;A comps</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Livestock trades at 8–12x EBITDA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CALCULATION</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Likely in VC/PE Portfolio but file read failed. Derived: $13B TAM - $6B Pet = $7B Livestock</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Retail margins compressed by 100–200 basis points</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Source pending. DTC vs retail margin analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Top 5 Global Manufacturers controlling ~55% of the market</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Likely S090 but need verification. Manufacturer concentration from company_profiles table</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>US focus on Safety (GRAS) and the EU mandate for Efficacy (Zootechnical)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tab: Figure I.1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Matches Table_US_vs_EU.csv. Pharma-grade vs commodity pricing analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Global AGP Bans (EU 2006, US 2017, China 2020)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Matches Timeline_Regulations.csv. Veterinary channel CLV impact modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EU Zinc Oxide Ban (2022)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Matches Timeline_Regulations.csv. Clinical trial cost estimates from industry practice</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$13 billion investable universe</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tab: Figure 4</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Matches Figure 4 TAM. R&amp;D intensity vs EBITDA correlation</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Price premiums of +40% to +150%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Claim regarding price premiums not found in sources. Mobility segment = $776M (NOTE: Text claims $2.6B - data mismatch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>reducing churn by 40–60%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Claim regarding churn reduction not found in sources. Cognitive = $312M (NOTE: Text claims $1.35B - data mismatch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cost of generating evidence ($100k–$150k per trial)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Claim regarding trial costs not found in sources. Psych/Calming = $239M (NOTE: Text claims $1.4B - data mismatch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>&gt;5% of revenue in R&amp;D... EBITDA margins &gt;20%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>R&amp;D/EBITDA correlation not found in sources. Gut Health = $2.913B (NOTE: Text claims $5.6B - data mismatch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mobility ($2.6B)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Segment size mismatch with Master Excel. Immunity = $1.841B (NOTE: Text claims $2.67B - data mismatch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cognitive Support ($1.35B)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Segment size mismatch with Master Excel. Performance/FCR = $1.426B (NOTE: Text claims $7.1B - data mismatch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Behavioral Wellness ($1.4B)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Segment size mismatch with Master Excel. Nutrigenomics = $795M (NOTE: Text claims $3.5B - data mismatch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gut Health ($5.6B)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Segment size mismatch with Master Excel. Sustainability = $786M (NOTE: Text claims $3.35B - data mismatch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Immunity ($2.67B)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Segment size mismatch with Master Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Performance Additives ($7.1B)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Segment size mismatch with Master Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Nutrigenomics ($3.5B)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Segment size mismatch with Master Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sustainability ($3.35B)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Segment size mismatch with Master Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>broader market is robust (~$123.8B)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>S104</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Total animal health market size. Total animal health market from Grand View Research ($123B in Figure 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Pet Nutraceuticals ($6B) forecast to double by 2030</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S104, S113</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Referenced Figure 16 but specific forecast not found. Growth forecast from Grand View / Mordor Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Europe is a Cat Continent (127M cats vs 104M dogs)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>S109</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Referenced Figures 17-18 but specific numbers not verified. European pet population from FEDIAF 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Feline segment growing at +11%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>S109</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Growth rate claim. Feline growth rate from FEDIAF 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$1.9B EU opportunity</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>S105</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>EU market size claim. EU market size from Euromonitor 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>94 million households (US)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>S110</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>US pet household count. US household pet ownership from APPA 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>APAC 12-15% CAGR in India and China</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>S104, S105</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Referenced Figure 19. APAC CAGR from Grand View / Euromonitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>China cat-majority market (71.5M cats)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>S105</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>China cat population. China pet population from Euromonitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Poultry dominates meat production (365M tonnes)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>S111</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Referenced Figure 20. Poultry production from FAO SOFIA 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$6.8B feed additive spend</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>S107, S108</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Referenced Figures 21-22. Feed additives market from Future Market Insights / MarketsandMarkets</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Aquaculture ($250M)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>S111</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Aqua segment size. Aquaculture market from FAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fear of Loss (50%) outweighs Aspiration (30%)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>S114</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Referenced Figure 26 - buyer psychology. Consumer psychology from Nicotra et al. 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Senior/Geriatric ($1.35B)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Senior segment size. Senior/Geriatric segment estimate</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Soft Chews ($593M)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>S089, Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Soft chews segment size. Delivery Systems = $2.749B (soft chews subset)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>C039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ingredient Suppliers EBITDA 25-30%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>IP holders margin claim. IP holder margin profile from value chain modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Generic commodity suppliers 5-12% margins</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Commodity margin claim. Commodity supplier margins from industry benchmarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>&gt;60% of pet brands rely on third-party manufacturing</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>CDMO market penetration. CDMO penetration estimate</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CDMOs enjoy 15-20% EBITDA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>CDMO margin claim. CDMO margin analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DTC realized margins 20-25%</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>DTC margin after CAC. DTC margin calc after CAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cost to develop new molecules &gt;$150M</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>R&amp;D cost claim. Pharma R&amp;D cost benchmarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tier 1 (IP-Rich) trade at 16x-22x EBITDA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Valuation multiple for IP-rich companies. IP-rich valuation multiples from Swedencare transactions</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Tier 2 (Commodity) trade at 8x-11x EBITDA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>INTERNAL ANALYSIS</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Valuation multiple for commodity players. Commodity tier multiples from comp analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Zesty Paws: $610M at ~16x EBITDA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Deal value from Table III.1. Zesty Paws deal from Swedencare / H&amp;H filings</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NaturVet: $447M at ~21.4x EBITDA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Deal value from Table III.1. NaturVet deal from Swedencare annual report</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Zoetis MFA: $350M</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>S115</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Deal value from Table III.1. Zoetis MFA divestiture from 10-K</t>
         </is>
       </c>
     </row>
@@ -4337,14 +6730,11 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4367,14 +6757,11 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4397,14 +6784,11 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4427,14 +6811,11 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4457,14 +6838,11 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4487,14 +6865,11 @@
           <t>Final</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>Author</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -6579,7 +6579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6639,6 +6639,1533 @@
           <t>notes</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FIG-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Developed markets prioritize 'Value over Volume' in pet ownership trends.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Figure 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FIG-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>European demographics show a structural dominance of the feline segment.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Figure 2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FIG-03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Feline segment growth outpaces canine due to urbanization constraints.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Figure 3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FIG-04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>APAC emerging as the primary volume engine for the next decade.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Figure 4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FIG-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Probiotics volume share reflects the dominance of poultry and swine sectors.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Figure 5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FIG-06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Disease outbreaks act as catalysts for immune-modulating additive demand.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Figure 6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FIG-07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Regulatory pressures drive structural contraction in Western swine herds.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Figure 7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FIG-08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Western de-ruminization shifts value from herd size to efficiency-per-head.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Figure 8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FIG-09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Global protein production shifts favor poultry and aquaculture over ruminants.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Figure 9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FIG-11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The 'Blue Transformation' drives industrialization and functional additive needs in aqua.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Figure 11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FIG-11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Palatability and format dictate compliance, which is a key efficacy driver.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Figure 11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FIG-12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nutraceuticals have captured a dominant share of the preventive care wallet.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Figure 12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FIG-13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>High-spending households drive the majority of revenue in the pet wellness category.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Figure 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FIG-14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Purchasing psychology is driven more by the fear of loss than aspirational health.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Figure 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FIG-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Category premiumization evolves from generic ingredients to IP-backed solutions.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Figure 15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FIG-16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Determining validity of 'Pre-Senior' segment expands Customer Lifetime Value.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Figure 16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Part II</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FIG-18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Channel economics favor omnichannel dominance but penalize pure-play DTC.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Figure 18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FIG-19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pricing power erodes as products move from IP owners to generic retailers.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Figure 19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FIG-20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strategic categorization defines the risk-reward profile for market entrants.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Figure 20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FIG-21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Incumbents utilize nutraceuticals as a low-cost acquisition funnel for future banking.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Figure 21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FIG-33</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Figure 33: Margin capture shifts upstream to IP holders and downstream to specialized CDMOs.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Figure 33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_0_1_Innovation_Matrix</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R&amp;D intensity correlates directly with EBITDA margin expansion/premium.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_0_2_Market_Bifurcation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Structural bifurcation splits the market into Emotional (Pet) and ROI (Livestock) economies.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_10_Matrix</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Advanced delivery formats ensure bioavailability and maximize compliance.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_11_Matrix</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sustainability metrics like methane reduction are becoming non-negotiable procurement specs.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_1_Matrix</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Efficacy levels in Mobility define market positioning and pricing power.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_2_Matrix</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gut Health strategy shifts from generic digestion to precision microbiome modulation.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_3_Matrix</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Immunity solutions build biological resilience for the post-antibiotic era.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_4_Matrix</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cognitive support monetizes the Silver Economy via neuro-preservation.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_5_Matrix</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Non-sedative anxiolysis replaces pharmacological interventions in behavior management.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_6_Matrix</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Enzymes and yeast cultures drive Feed Conversion Ratios (FCR) in livestock.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FIG-Figure_II_9_Matrix</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gene-expression data constructs a defensible moat of validation around ingredients.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FIG-Figure_I_3_Regulatory_Matrix</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Regulatory pathways dictate unit economics and allowable claims.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FIG-Figure_MA_Matrix</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>M&amp;A valuation matrix favors de-risked assets over internal R&amp;D development.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FIG-Figure_TAM_Reconciliation</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Market reconciliation excludes commodities to define the investable high-value universe.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FIG-Regulatory_Timeline_RightArrow</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Regulatory Timeline: The Push for Alternatives</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FIG-Table_US_vs_EU</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Regulatory Divergence creates structural barriers to entry for non-compliant actors.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>sources/datasets/Whitepaper_Master_Data.xlsx</t>
+          <t>_figures/figures_data.xlsx</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3337,6 +3337,11 @@
       <c r="H90" t="inlineStr">
         <is>
           <t>Agent</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] Canonical figure-data workbook migrated to _figures/figures_data.xlsx.</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3811,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Animal Health Market Size &amp; Share Analysis Report, 2030</t>
+          <t>sources/datasets/Whitepaper_Master_Data.xlsx</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3821,7 +3826,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Grand View figures used in report models.</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3848,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Pet Care Global Market Data 2024</t>
+          <t>sources/datasets/Pet_Ownership_Market_Data_Sourced.xlsx</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3858,7 +3863,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Euromonitor pet-care values used in report models.</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3885,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Supplement Business Report 2023</t>
+          <t>sources/datasets/Nutraceuticals_Delivery_Formats_Data.xlsx</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3895,7 +3900,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for NBJ format/category data used in report models.</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3922,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Animal Feed Additives Market Outlook</t>
+          <t>sources/datasets/Livestock_Segment_Complete_Data_Sources.xlsx</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3932,7 +3937,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Future Market Insights feed-additive estimates used in report models.</t>
         </is>
       </c>
     </row>
@@ -3954,7 +3959,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Probiotics in Animal Feed Market - Global Forecast to 2028</t>
+          <t>sources/datasets/Figure5_Probiotics_Share.csv</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3969,7 +3974,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for MarketsandMarkets probiotics split used in report models.</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3996,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>European Pet Food Industry: Facts &amp; Figures 2023</t>
+          <t>sources/academic/FEDIAF-Facts-Figures-2025.pdf</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4028,7 +4033,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>National Pet Owners Survey (2023-2024)</t>
+          <t>sources/datasets/Figure1_Pet_Ownership.csv</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4043,7 +4048,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for APPA ownership metrics used in figures.</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4070,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The State of World Fisheries and Aquaculture (SOFIA) 2024</t>
+          <t>sources/datasets/Figure9_Livestock_Trends.csv</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4080,7 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for FAO SOFIA livestock/aquaculture trend data used in figures.</t>
         </is>
       </c>
     </row>
@@ -4102,7 +4107,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Agricultural Production - Livestock and Meat (2023 Data)</t>
+          <t>sources/datasets/Livestock_Breeding_EU_vs_USA_Data.xlsx</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4117,7 +4122,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Eurostat livestock/meat comparison used in report models.</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4144,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Global Animal Nutraceuticals Market Size &amp; Share Analysis</t>
+          <t>sources/datasets/Nutraceuticals_Functional_Segments_Data.xlsx</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4154,7 +4159,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Mordor Intelligence market segmentation used in report models.</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4181,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Nutraceuticals, Social Interaction, and Psychophysiological Influence on Pet Health</t>
+          <t>sources/academic/Nutraceuticals, Social Interaction, and Psychophysiological Influence on Pet Health and Well-Being- Focus on Dogs and Cats.pdf</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4213,7 +4218,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Form 10-K</t>
+          <t>sources/reports/zoetis_2024_annual_report.pdf</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4228,7 +4233,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4255,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Investor Presentations</t>
+          <t>sources/internal/20260115_VC_PE_Portfolio.xlsx</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4265,7 +4270,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Internal investor compilation used as in-repo proxy; original Elanco deck not found by filename.</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4292,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Integrated Annual Report</t>
+          <t>sources/reports/dsm_firmenich_2024_integrated_annual_report.pdf</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4302,7 +4307,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4329,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Year-End Report</t>
+          <t>sources/reports/swedencare_annual_report_2024.pdf</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4339,7 +4344,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4366,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Annual Financial Report</t>
+          <t>sources/reports/virbac_annual_report_2024.pdf</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4376,7 +4381,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4398,7 +4403,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>sources/reports/dechra_annual_report_2023.pdf</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4413,7 +4418,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4602,19 +4607,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4622,7 +4627,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Figure 4 Regional Market sums to 6.0B. Valuation range based on M&amp;A transaction analysis</t>
+          <t>Figure 4 Regional Market sums to 6.0B. Valuation range based on M&amp;A transaction analysis [AUDIT 2026-02-08] Needs external support for valuation multiple (15-20x EBITDA). Candidate filings: S118/S119/S120.</t>
         </is>
       </c>
     </row>
@@ -4686,19 +4691,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4706,7 +4711,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Derived from 13-6. S039 has 8B for Livestock Premix. Valuation range based on livestock sector M&amp;A comps</t>
+          <t>Derived from 13-6. S039 has 8B for Livestock Premix. Valuation range based on livestock sector M&amp;A comps [AUDIT 2026-02-08] Market size is calculation-backed; valuation multiple requires external support (S118/S119/S120).</t>
         </is>
       </c>
     </row>
@@ -4770,19 +4775,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4790,7 +4795,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Source pending. DTC vs retail margin analysis</t>
+          <t>Source pending. DTC vs retail margin analysis [AUDIT 2026-02-08] Retail vs DTC margin compression requires external channel data source.</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4859,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>S085</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4864,14 +4869,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4879,7 +4884,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Matches Table_US_vs_EU.csv. Pharma-grade vs commodity pricing analysis</t>
+          <t>Matches Table_US_vs_EU.csv. Pharma-grade vs commodity pricing analysis [AUDIT 2026-02-08] Mapped to Table_US_vs_EU dataset.</t>
         </is>
       </c>
     </row>
@@ -4901,19 +4906,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>S086</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4921,7 +4926,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Matches Timeline_Regulations.csv. Veterinary channel CLV impact modeling</t>
+          <t>Matches Timeline_Regulations.csv. Veterinary channel CLV impact modeling [AUDIT 2026-02-08] Mapped to Timeline_Regulations dataset.</t>
         </is>
       </c>
     </row>
@@ -4943,19 +4948,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>S086</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4963,7 +4968,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Matches Timeline_Regulations.csv. Clinical trial cost estimates from industry practice</t>
+          <t>Matches Timeline_Regulations.csv. Clinical trial cost estimates from industry practice [AUDIT 2026-02-08] Mapped to Timeline_Regulations dataset.</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5373,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5388,7 +5393,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel</t>
+          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification.</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5415,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5430,7 +5435,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel</t>
+          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification.</t>
         </is>
       </c>
     </row>
@@ -5452,7 +5457,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5472,7 +5477,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel</t>
+          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification.</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5499,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5514,7 +5519,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel</t>
+          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification.</t>
         </is>
       </c>
     </row>
@@ -6124,19 +6129,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6144,7 +6149,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>IP holders margin claim. IP holder margin profile from value chain modeling</t>
+          <t>IP holders margin claim. IP holder margin profile from value chain modeling [AUDIT 2026-02-08] Margin band needs externally citable support.</t>
         </is>
       </c>
     </row>
@@ -6166,19 +6171,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6186,7 +6191,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Commodity margin claim. Commodity supplier margins from industry benchmarks</t>
+          <t>Commodity margin claim. Commodity supplier margins from industry benchmarks [AUDIT 2026-02-08] Margin band needs externally citable support.</t>
         </is>
       </c>
     </row>
@@ -6208,19 +6213,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6228,7 +6233,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CDMO market penetration. CDMO penetration estimate</t>
+          <t>CDMO market penetration. CDMO penetration estimate [AUDIT 2026-02-08] CDMO penetration claim requires source.</t>
         </is>
       </c>
     </row>
@@ -6250,19 +6255,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6270,7 +6275,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CDMO margin claim. CDMO margin analysis</t>
+          <t>CDMO margin claim. CDMO margin analysis [AUDIT 2026-02-08] CDMO margin claim requires source.</t>
         </is>
       </c>
     </row>
@@ -6292,19 +6297,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6312,7 +6317,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DTC margin after CAC. DTC margin calc after CAC</t>
+          <t>DTC margin after CAC. DTC margin calc after CAC [AUDIT 2026-02-08] DTC margin claim requires source.</t>
         </is>
       </c>
     </row>
@@ -6334,19 +6339,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6354,7 +6359,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>R&amp;D cost claim. Pharma R&amp;D cost benchmarks</t>
+          <t>R&amp;D cost claim. Pharma R&amp;D cost benchmarks [AUDIT 2026-02-08] Molecule development cost claim requires source.</t>
         </is>
       </c>
     </row>
@@ -6418,19 +6423,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>INTERNAL ANALYSIS</t>
+          <t>AUTHOR-CHECK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6438,7 +6443,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Valuation multiple for commodity players. Commodity tier multiples from comp analysis</t>
+          <t>Valuation multiple for commodity players. Commodity tier multiples from comp analysis [AUDIT 2026-02-08] Tier-2 multiple requires source support.</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6686,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6724,7 +6728,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6767,7 +6770,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6810,7 +6812,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6853,7 +6854,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6896,7 +6896,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6939,7 +6938,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6982,7 +6980,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7025,7 +7022,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7068,7 +7064,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7111,7 +7106,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7154,7 +7148,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7197,7 +7190,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7240,7 +7232,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7283,7 +7274,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7326,7 +7316,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7369,7 +7358,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7412,7 +7400,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7455,7 +7442,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7498,7 +7484,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7523,7 +7508,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Figure 33</t>
+          <t>Figure 36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -7541,7 +7526,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7564,7 +7553,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Figure 5</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7580,7 +7573,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7603,7 +7600,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Figure 6</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7619,7 +7620,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7642,7 +7647,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Figure 16</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7658,7 +7667,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7681,7 +7694,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Figure 17</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7697,7 +7714,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7720,7 +7741,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Figure 7</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7736,7 +7761,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7759,7 +7788,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Figure 8</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7775,7 +7808,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7798,7 +7835,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Figure 9</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7814,7 +7855,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7837,7 +7882,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Figure 10</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7853,7 +7902,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7876,7 +7929,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Figure 11</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7892,7 +7949,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7915,7 +7976,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Figure 12</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7931,7 +7996,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7954,7 +8023,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Figure 15</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -7970,7 +8043,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7993,7 +8070,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Figure 3</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -8009,7 +8090,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8032,7 +8117,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Figure 45</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>Part III</t>
@@ -8048,7 +8137,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8071,7 +8164,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Figure 4</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -8087,7 +8184,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8110,7 +8211,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Figure 2</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -8126,7 +8231,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8149,7 +8258,11 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Figure 1</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>Part I</t>
@@ -8165,7 +8278,11 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -3826,7 +3826,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Grand View figures used in report models.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Euromonitor pet-care values used in report models.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for NBJ format/category data used in report models.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Future Market Insights feed-additive estimates used in report models.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for MarketsandMarkets probiotics split used in report models.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>[AUDIT 2026-02-08] Primary industry report file present in sources/academic.</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for APPA ownership metrics used in figures.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for FAO SOFIA livestock/aquaculture trend data used in figures.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Eurostat livestock/meat comparison used in report models.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Derived dataset proxy for Mordor Intelligence market segmentation used in report models.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] In-repo dataset proxy used for modeled values; original publisher report file is not included in this repository.</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>[AUDIT 2026-02-08] Primary scientific paper file present in sources/academic.</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing stored in sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Internal investor compilation used as in-repo proxy; original Elanco deck not found by filename.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] Internal investor compilation used as in-repo proxy; original Elanco deck not found in repository.</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing stored in sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing stored in sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing stored in sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Y [AUDIT 2026-02-08] SOURCE FILE NOT FOUND IN REPO; author must attach or replace with an on-disk file path. [AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing located in archived inputs and copied into sources/reports.</t>
+          <t>[AUDIT 2026-02-08 SOURCE-RECOVERY] Primary filing stored in sources/reports.</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4607,7 +4607,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tab: Figure 39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4627,7 +4632,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Figure 4 Regional Market sums to 6.0B. Valuation range based on M&amp;A transaction analysis [AUDIT 2026-02-08] Needs external support for valuation multiple (15-20x EBITDA). Candidate filings: S118/S119/S120.</t>
+          <t>Figure 4 Regional Market sums to 6.0B. Valuation range based on M&amp;A transaction analysis [AUDIT 2026-02-08] Needs external support for valuation multiple (15-20x EBITDA). Candidate filings: S118/S119/S120. [FINAL-QA 2026-02-08] Updated to direct benchmark value.</t>
         </is>
       </c>
     </row>
@@ -4644,24 +4649,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Proven therapeutic efficacy commands valuations of 15–20x EBITDA</t>
+          <t>Premium transaction valuations ~16x–21x EBITDA for scaled pet assets</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S089, Tab: Figure 4</t>
+          <t>S118</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Table III.1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4669,7 +4679,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Likely in VC/PE Portfolio but file read failed. Calculated from TAM-SAM spread</t>
+          <t>Likely in VC/PE Portfolio but file read failed. Calculated from TAM-SAM spread [FINAL-QA 2026-02-08] Updated from range claim to transaction-backed range.</t>
         </is>
       </c>
     </row>
@@ -4686,12 +4696,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Livestock Economy (~$7B)</t>
+          <t>Livestock/Premix exposure (~$8B)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tab: Figure 39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4711,7 +4726,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Derived from 13-6. S039 has 8B for Livestock Premix. Valuation range based on livestock sector M&amp;A comps [AUDIT 2026-02-08] Market size is calculation-backed; valuation multiple requires external support (S118/S119/S120).</t>
+          <t>Derived from 13-6. S039 has 8B for Livestock Premix. Valuation range based on livestock sector M&amp;A comps [AUDIT 2026-02-08] Market size is calculation-backed; valuation multiple requires external support (S118/S119/S120). [FINAL-QA 2026-02-08] Updated to direct benchmark value.</t>
         </is>
       </c>
     </row>
@@ -4738,14 +4753,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -4753,7 +4768,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Likely in VC/PE Portfolio but file read failed. Derived: $13B TAM - $6B Pet = $7B Livestock</t>
+          <t>Likely in VC/PE Portfolio but file read failed. Derived: $13B TAM - $6B Pet = $7B Livestock [FINAL-QA 2026-02-08] [DEPRECATED] Original 8x–12x livestock multiple statement removed from section text.</t>
         </is>
       </c>
     </row>
@@ -4770,12 +4785,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Retail margins compressed by 100–200 basis points</t>
+          <t>Veterinary channel net margin compressed by ~200 bps (2019 to 2024)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tab: Figure 37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4795,7 +4815,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Source pending. DTC vs retail margin analysis [AUDIT 2026-02-08] Retail vs DTC margin compression requires external channel data source.</t>
+          <t>Source pending. DTC vs retail margin analysis [AUDIT 2026-02-08] Retail vs DTC margin compression requires external channel data source. [FINAL-QA 2026-02-08] Updated to direct benchmark time-series value.</t>
         </is>
       </c>
     </row>
@@ -5032,24 +5052,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Price premiums of +40% to +150%</t>
+          <t>Clinical validity is associated with stronger margin architecture</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S089, Tab: Figure 18</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tab: Figure 5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -5057,7 +5082,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Claim regarding price premiums not found in sources. Mobility segment = $776M (NOTE: Text claims $2.6B - data mismatch)</t>
+          <t>Claim regarding price premiums not found in sources. Mobility segment = $776M (NOTE: Text claims $2.6B - data mismatch) [FINAL-QA 2026-02-08] Reframed to match available evidence.</t>
         </is>
       </c>
     </row>
@@ -5084,14 +5109,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -5099,7 +5124,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Claim regarding churn reduction not found in sources. Cognitive = $312M (NOTE: Text claims $1.35B - data mismatch)</t>
+          <t>Claim regarding churn reduction not found in sources. Cognitive = $312M (NOTE: Text claims $1.35B - data mismatch) [FINAL-QA 2026-02-08] [DEPRECATED] Explicit churn 40–60% claim removed from section text.</t>
         </is>
       </c>
     </row>
@@ -5126,14 +5151,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -5141,7 +5166,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Claim regarding trial costs not found in sources. Psych/Calming = $239M (NOTE: Text claims $1.4B - data mismatch)</t>
+          <t>Claim regarding trial costs not found in sources. Psych/Calming = $239M (NOTE: Text claims $1.4B - data mismatch) [FINAL-QA 2026-02-08] [DEPRECATED] Explicit trial-cost range claim removed from section text.</t>
         </is>
       </c>
     </row>
@@ -5163,19 +5188,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S089, Tab: Figure 18</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tab: Figure 5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -5183,7 +5213,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>R&amp;D/EBITDA correlation not found in sources. Gut Health = $2.913B (NOTE: Text claims $5.6B - data mismatch)</t>
+          <t>R&amp;D/EBITDA correlation not found in sources. Gut Health = $2.913B (NOTE: Text claims $5.6B - data mismatch) [FINAL-QA 2026-02-08] Aligned source location to Figure 5 benchmark matrix.</t>
         </is>
       </c>
     </row>
@@ -5200,24 +5230,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mobility ($2.6B)</t>
+          <t>Mobility ($776M)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>S089, Tab: Figure 18</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -5225,7 +5260,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel. Immunity = $1.841B (NOTE: Text claims $2.67B - data mismatch)</t>
+          <t>Segment size mismatch with Master Excel. Immunity = $1.841B (NOTE: Text claims $2.67B - data mismatch) [FINAL-QA 2026-02-08] Corrected value to workbook figure.</t>
         </is>
       </c>
     </row>
@@ -5242,24 +5277,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cognitive Support ($1.35B)</t>
+          <t>Cognitive Support ($312M)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S089, Tab: Figure 18</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -5267,7 +5307,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel. Performance/FCR = $1.426B (NOTE: Text claims $7.1B - data mismatch)</t>
+          <t>Segment size mismatch with Master Excel. Performance/FCR = $1.426B (NOTE: Text claims $7.1B - data mismatch) [FINAL-QA 2026-02-08] Corrected value to workbook figure.</t>
         </is>
       </c>
     </row>
@@ -5284,24 +5324,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Behavioral Wellness ($1.4B)</t>
+          <t>Behavioral Wellness/Psych-Calming ($239M)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S089, Tab: Figure 18</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -5309,7 +5354,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel. Nutrigenomics = $795M (NOTE: Text claims $3.5B - data mismatch)</t>
+          <t>Segment size mismatch with Master Excel. Nutrigenomics = $795M (NOTE: Text claims $3.5B - data mismatch) [FINAL-QA 2026-02-08] Corrected value to workbook figure.</t>
         </is>
       </c>
     </row>
@@ -5326,24 +5371,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gut Health ($5.6B)</t>
+          <t>Gut Health ($2.913B)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>S089, Tab: Figure 18</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -5351,7 +5401,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel. Sustainability = $786M (NOTE: Text claims $3.35B - data mismatch)</t>
+          <t>Segment size mismatch with Master Excel. Sustainability = $786M (NOTE: Text claims $3.35B - data mismatch) [FINAL-QA 2026-02-08] Corrected value to workbook figure.</t>
         </is>
       </c>
     </row>
@@ -5368,12 +5418,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Immunity ($2.67B)</t>
+          <t>Immunity ($1.841B)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5393,7 +5448,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification.</t>
+          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification. [FINAL-QA 2026-02-08] Corrected value to workbook figure.</t>
         </is>
       </c>
     </row>
@@ -5410,12 +5465,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Performance Additives ($7.1B)</t>
+          <t>Performance/FCR ($1.426B)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5435,7 +5495,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification.</t>
+          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification. [FINAL-QA 2026-02-08] Corrected value to workbook figure.</t>
         </is>
       </c>
     </row>
@@ -5452,12 +5512,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nutrigenomics ($3.5B)</t>
+          <t>Nutrigenomics ($795M)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5477,7 +5542,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification.</t>
+          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification. [FINAL-QA 2026-02-08] Corrected value to workbook figure.</t>
         </is>
       </c>
     </row>
@@ -5494,12 +5559,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sustainability ($3.35B)</t>
+          <t>Sustainability ($786M)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5519,7 +5589,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification.</t>
+          <t>Segment size mismatch with Master Excel [AUDIT 2026-02-08] Text value conflicts with S089 Figure 18; reconcile before verification. [FINAL-QA 2026-02-08] Corrected value to workbook figure.</t>
         </is>
       </c>
     </row>
@@ -6050,14 +6120,14 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6065,7 +6135,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Senior segment size. Senior/Geriatric segment estimate</t>
+          <t>Senior segment size. Senior/Geriatric segment estimate [FINAL-QA 2026-02-08] [DEPRECATED] Senior/Geriatric $1.35B claim removed; not supported by Figure 18 tab values.</t>
         </is>
       </c>
     </row>
@@ -6082,24 +6152,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Soft Chews ($593M)</t>
+          <t>Delivery systems are commercially material in companion segment</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S089, Tab: Figure 18</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -6107,7 +6182,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Soft chews segment size. Delivery Systems = $2.749B (soft chews subset)</t>
+          <t>Soft chews segment size. Delivery Systems = $2.749B (soft chews subset) [FINAL-QA 2026-02-08] Reframed from unsupported soft-chew value.</t>
         </is>
       </c>
     </row>
@@ -6124,12 +6199,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ingredient Suppliers EBITDA 25-30%</t>
+          <t>Ingredient stage captures ~25% EBITDA in benchmark stack</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Tab: Figure 36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6149,7 +6229,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>IP holders margin claim. IP holder margin profile from value chain modeling [AUDIT 2026-02-08] Margin band needs externally citable support.</t>
+          <t>IP holders margin claim. IP holder margin profile from value chain modeling [AUDIT 2026-02-08] Margin band needs externally citable support. [FINAL-QA 2026-02-08] Replaced unsupported range with benchmark value.</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6246,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Generic commodity suppliers 5-12% margins</t>
+          <t>Commodity-linked profiles screen around ~6–10% EBITDA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tab: Figure 39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6191,7 +6276,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Commodity margin claim. Commodity supplier margins from industry benchmarks [AUDIT 2026-02-08] Margin band needs externally citable support.</t>
+          <t>Commodity margin claim. Commodity supplier margins from industry benchmarks [AUDIT 2026-02-08] Margin band needs externally citable support. [FINAL-QA 2026-02-08] Replaced unsupported range with benchmark values.</t>
         </is>
       </c>
     </row>
@@ -6208,12 +6293,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>&gt;60% of pet brands rely on third-party manufacturing</t>
+          <t>Manufacturing/CDMO layer captures ~15% EBITDA in benchmark stack</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tab: Figure 36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6233,7 +6323,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CDMO market penetration. CDMO penetration estimate [AUDIT 2026-02-08] CDMO penetration claim requires source.</t>
+          <t>CDMO market penetration. CDMO penetration estimate [AUDIT 2026-02-08] CDMO penetration claim requires source. [FINAL-QA 2026-02-08] Replaced unsupported penetration+margin claim with benchmark value.</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6365,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CDMO margin claim. CDMO margin analysis [AUDIT 2026-02-08] CDMO margin claim requires source.</t>
+          <t>CDMO margin claim. CDMO margin analysis [AUDIT 2026-02-08] CDMO margin claim requires source. [FINAL-QA 2026-02-08] [DEPRECATED] Duplicate CDMO margin range claim consolidated into C041.</t>
         </is>
       </c>
     </row>
@@ -6292,12 +6382,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DTC realized margins 20-25%</t>
+          <t>Veterinary channel net margin declined from 25% (2010) to 18% (2024)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Tab: Figure 37</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6317,7 +6412,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DTC margin after CAC. DTC margin calc after CAC [AUDIT 2026-02-08] DTC margin claim requires source.</t>
+          <t>DTC margin after CAC. DTC margin calc after CAC [AUDIT 2026-02-08] DTC margin claim requires source. [FINAL-QA 2026-02-08] Updated to direct benchmark time-series value.</t>
         </is>
       </c>
     </row>
@@ -6334,12 +6429,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cost to develop new molecules &gt;$150M</t>
+          <t>Representative M&amp;A deal values: Zesty Paws $610M, NaturVet $447M, Zoetis MFA $350M</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S118, S115</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Table III.1; Filing reference</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6359,7 +6459,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>R&amp;D cost claim. Pharma R&amp;D cost benchmarks [AUDIT 2026-02-08] Molecule development cost claim requires source.</t>
+          <t>R&amp;D cost claim. Pharma R&amp;D cost benchmarks [AUDIT 2026-02-08] Molecule development cost claim requires source. [FINAL-QA 2026-02-08] Replaced unsupported molecule-cost claim with sourced transaction values.</t>
         </is>
       </c>
     </row>
@@ -6418,12 +6518,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tier 2 (Commodity) trade at 8x-11x EBITDA</t>
+          <t>Commodity-linked profiles exhibit lower economics versus IP-rich assets</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AUTHOR-CHECK</t>
+          <t>S089, S118</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Tab: Figure 39; Table III.1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6443,7 +6548,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Valuation multiple for commodity players. Commodity tier multiples from comp analysis [AUDIT 2026-02-08] Tier-2 multiple requires source support.</t>
+          <t>Valuation multiple for commodity players. Commodity tier multiples from comp analysis [AUDIT 2026-02-08] Tier-2 multiple requires source support. [FINAL-QA 2026-02-08] Reframed from unsupported Tier-2 multiple range.</t>
         </is>
       </c>
     </row>
@@ -6570,6 +6675,1434 @@
       <c r="J50" t="inlineStr">
         <is>
           <t>Deal value from Table III.1. Zoetis MFA divestiture from 10-K</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>I.1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Animal nutraceuticals remain a regulatory "grey zone" between feed and pharmaceuticals, and market access depends on choosing the right jurisdictional pathway at launch: US safety-first positioning under FDA guidance, EU efficacy-first positioning under zootechnical rules, and China compliance-first positioning under MARA licensing [S085; S015]. This divergence is not semantic; it drives dossier cost, time-to-market, and claim perimeter.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>S085, S015</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>I.1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Policy shocks have repeatedly reallocated value toward biological alternatives. The AGP ban sequence (EU 2006, US 2017, China 2020) and the EU zinc oxide restriction in swine (2022) structurally accelerated demand for probiotics, organic acids, enzymes, and immunomodulators [S086]. In practical terms, regulation has functioned as a forced-adoption engine for nutraceutical infrastructure in livestock systems [S086].</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>S086</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>I.1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>For investment screening, the scope should stay explicit: include functional bioactives and validated delivery systems; exclude generic commodities and prescription VMP revenues unless nutraceutical adjacency is directly demonstrated [S089, Tab: Figure 4]. Under this scope discipline, the serviceable baseline remains about $13B, split across pet and livestock/premix-adjacent value pools [S089, Tab: Figure 4; S089, Tab: Figure 39].</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>I.2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The legacy v19 framework on evidence ladders remains directionally valid and should be retained: Level A therapeutic evidence supports quasi-drug positioning, Level B supports premium OTC, and Level C remains vulnerable to rapid commoditization [S089, Tab: Figure 5]. The historical premium ranges used in that framework (+40% to +150% for top-tier evidence) are currently not tied to a directly auditable source file and therefore remain flagged [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>I.2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Cross-sectional benchmarking still indicates that scientific substantiation and R&amp;D intensity correlate with superior margin capture. In the benchmark set, companies with stronger clinical positioning and higher R&amp;D commitment outperform low-evidence profiles on EBITDA structure and channel resilience [S089, Tab: Figure 5]. The specific threshold convention (&gt;5% R&amp;D and &gt;20% EBITDA as a repeatable premium signal) is retained from prior work and remains unresolved until direct source-level confirmation [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>C055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>I.2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Clinical strength also influences route-to-market mechanics. Products with stronger evidence are more likely to secure veterinary endorsement, improve retention durability, and sustain higher lifetime value through protocol-like usage rather than discretionary usage [S089, Tab: Figure 5]. This links scientific validation to both gross margin quality and valuation support in later-stage transactions [S118, Table III.1].</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>S089, S118</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>C056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>I.3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>On the companion side, mobility remains the largest mapped pool ($776M), with cognitive support ($312M) and behavioral wellness ($239M) as structurally growing niches in aging-pet demand curves [S089, Tab: Figure 18]. The v19 thematic overlays around natural ectoparasite defense and pre-senior protocolization are retained as strategic hypotheses, but their exact monetization splits remain pending direct source mapping [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>I.3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>On the production side, gut health ($2.913B), immunity ($1.841B), and performance/FCR ($1.426B) remain the core value engines, while nutrigenomics ($795M) and sustainability-linked interventions ($786M) define the higher-optionality frontier [S089, Tab: Figure 18]. The prior "11-segment target matrix" perspective from v19 is therefore reintroduced conceptually as a full-spectrum portfolio lens spanning pet, livestock, and aqua use-cases [S089, Tab: Figure 18; S111].</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>S089, S111</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>I.3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>To preserve missing legacy signal without overstating certainty, we keep two conclusions explicit: first, comparative segment economics favor validated functional categories over generic actives; second, ingredient-share concentration appears higher in clinically evidenced categories than in commodity categories [UNVERIFIED]. These are carried forward for follow-up verification in the unresolved claims tracker before publication sign-off [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>II.1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The two-speed market logic remains intact: pet demand in developed economies is primarily value-led, while production-animal demand in emerging economies is still volume-led [S104; S089, Tab: Figure 4]. This matters because valuation expansion has been concentrated in premiumized pet portfolios even when aggregate animal-health growth appears broad-based [S104; S113].</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>S104, S089, S113</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>C060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>II.1</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Regional asymmetry remains a core allocation input. Europe behaves as a cat-heavy, urban-constrained market, while the US remains the highest-scale premiumization anchor and APAC remains the most important medium-term volume engine [S109; S110; S105]. The v19 framing of "North America value leader / EU cat continent / APAC growth engines" is therefore retained in this version as a strategic segmentation lens [S109; S110; S104].</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>S109, S110, S105, S104</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>II.1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Demographic structure also influences format and channel mix. Dense urban markets skew toward easier administration formats and pharmacy-compatible purchasing pathways, while suburban/high-income clusters show stronger attachment to premium preventive bundles and brand-led recurrence [UNVERIFIED]. This channel-demography coupling is treated as a high-priority validation item before final distribution [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>II.2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Livestock demand remains governed by industrial economics: producers adopt only when additives defend throughput, stabilize biology, and preserve margin under feed-cost and disease pressure [S107; S108; S111]. Poultry and aquaculture continue to absorb disproportionate functional demand because cycle times, stocking density, and biosecurity risk make biological efficiency non-optional [S111].</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>S107, S108, S111</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>II.2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>The v19 "ROI algorithm" logic is still decision-relevant: adoption is evaluated against measurable output gains (feed conversion, mortality control, yield stability), not against consumer-style brand preference [UNVERIFIED]. The often-cited 3:1 economic hurdle used in prior internal material is preserved as an unresolved assumption pending direct traceable sourcing [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>II.2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Western herd contraction and environmental constraints increase the value-per-animal thesis, while methane-linked compliance shifts parts of sustainability spend from discretionary to mandatory in selected value chains [S112; S117]. This interaction between efficiency economics and compliance economics is one of the strongest cross-cycle demand stabilizers in the livestock branch [S117; S089, Tab: Figure 18].</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>S112, S117, S089</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>II.3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>In companion animals, willingness-to-pay is driven less by objective utility maximization and more by risk-of-loss framing, preventive intent, and attachment psychology [S114; S056]. This makes high-trust categories with strong narrative efficacy and convenient administration structurally more resilient than generic wellness SKUs [S106; S053].</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>S114, S056, S106, S053</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>II.3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Legacy v19 content on "wallet capture" and "Pareto concentration" is reintroduced as a strategic guardrail: a minority of high-spend households likely drives disproportionate preventive-care revenue concentration [S055; S054]. The exact concentration split used in internal slides remains to be revalidated against a directly citable source file and is therefore kept unresolved [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>II.3</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Premiumization, lifecycle extension, and earlier protocol initiation still appear to be the key growth mechanics on the pet side. The move from generic actives toward differentiated/IP-backed formats, combined with earlier entry into wellness routines, extends duration of spend and improves lifetime value [S057; S058; S089, Tab: Figure 18].</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>S057, S058, S089</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>III.1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Value capture remains asymmetric: upstream science, branded formulation control, and specialized manufacturing capabilities capture structurally higher economics than undifferentiated downstream resale [S089, Tab: Figure 36; S089, Tab: Figure 39]. The middle of the chain continues to compress when products lack protectable claims, while IP-linked and channel-integrated models preserve margin integrity [S089, Tab: Figure 36].</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>III.1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>The legacy downstream split from v19 (pet "wellness premium" chain vs livestock "efficiency scale" chain) is reintroduced here as a practical operating lens: pet-side value is captured through brand and compliance behavior, while livestock value is captured through measurable biological performance and procurement fit [S089, Tab: Figure 39; S060]. This explains why similar active ingredients can clear materially different economics depending on end-channel and claim architecture [S061; S089, Tab: Figure 37].</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>S089, S060, S061</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>III.1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The strategic-opportunity framing from v19 is also retained: broad animal-health TAM, narrower nutraceutical SAM, and an execution-level SOM for prioritized platforms [S104; S089, Tab: Figure 4]. The specific "~$250M target SOM" figure used in legacy internal work is not currently backed by a directly citable source file and remains unresolved [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The competitive landscape still fits a barbell structure: large integrated incumbents controlling distribution and care-continuum access on one side, and specialist innovators controlling biological or formulation IP on the other [S115; S118; S117]. The middle layer remains the most exposed to multiple compression where differentiation is weak and substitution risk is high [S089, Tab: Figure 39].</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>S115, S118, S117, S089</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Transaction evidence supports this consolidation logic. High-quality assets with brand defensibility, channel access, or manufacturing optionality continue to attract premium outcomes, as reflected by benchmark transactions including Zesty Paws and NaturVet and the Zoetis MFA divestiture [S118, Table III.1; S115]. Additional deal benchmarks cited in legacy internal files (including sector medians and thematic platform baskets) are kept as unresolved until directly source-mapped [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Valuation dispersion remains linked to four recurring drivers: evidence depth, channel control, platform scalability, and regulatory optionality [S118, Table III.1; S089, Tab: Figure 39]. Legacy investor-profile clustering from v19 is conceptually reintroduced for strategic continuity, but named portfolio mappings beyond currently registered sources are retained as unresolved [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>C074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>III.3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Green-claim institutionalization is moving from marketing language toward regulated, auditable claim stacks in selected jurisdictions, which raises the evidentiary bar but also increases defensibility for scaled platforms with documentation depth [S015; S117]. The legacy v19 "evidence hierarchy for green labels" is carried forward as a useful operating framework, but its tier definitions remain to be fully source-linked [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>III.3</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Nutrigenomics, precision-biological formulation, and longevity-linked protocols remain the highest-optionality frontier. The core investment idea is unchanged: value migrates toward platforms that can connect molecular mechanism, measurable phenotype, and durable channel adoption [S089, Tab: Figure 18; S114]. Gene-editing adjacency and lifespan-extension pathway assumptions from prior drafts are retained as directional themes pending explicit citation completion [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>III.3</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>The APAC AGP-dividend scenario from v19 is also preserved as a strategic outlook lens: tighter antibiotic constraints in China and India could expand long-run functional additive demand and alter global TAM composition [UNVERIFIED]. Until those scenario tables are fully source-bound, they should remain in the unresolved-claims workflow, while current investment roadmap decisions stay anchored to sourced economics in Parts I–III [S104; S089, Tab: Figure 39].</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C077</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>III.1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Figure 38 TAM/SAM/SOM visual is retained from legacy v19 but underlying source linkage is unresolved.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Figure 38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>C078</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>FoodScience premium transaction rationale is retained from legacy v19 and requires direct source validation.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Table III.1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>C079</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Figure 42 Margin Ladder visual is retained from legacy v19 but underlying source linkage is unresolved.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Figure 42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>C080</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Figure 43 Strategic Capital Allocation matrix is retained from legacy v19 but underlying source linkage is unresolved.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Figure 43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C081</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>III.3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Figure 44 Opportunity matrix is retained from legacy v19 but underlying source linkage is unresolved.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Figure 44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
         </is>
       </c>
     </row>
@@ -6584,7 +8117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8281,6 +9814,335 @@
       <c r="I38" t="inlineStr">
         <is>
           <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FIG-38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strategic opportunity funnel from broad TAM to executable SOM.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Diagram</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Figure 38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Reintroduced from v19 into Part III; source pending.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FIG-39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Revenue architecture across pharma-linked, feed-linked, and consumer-led models.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Bar Chart</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>S115, S117, S118, S119, S120</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Figure 39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Reintroduced from v19 into Part III.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FIG-40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Capability matrix across the Continuum of Care.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Matrix</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>S115, S117, S118, S119, S120</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Figure 40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Reintroduced from v19 into Part III.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FIG-41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pet category structure and disruption long-tail dynamics.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Chart</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>S105</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Figure 41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Reintroduced from v19 into Part III.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FIG-42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Margin ladder by value-chain position and model quality.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Diagram</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Figure 42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Reintroduced from v19 into Part III; source pending.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FIG-43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Strategic capital-allocation matrix for risk/reward positioning.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Matrix</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Figure 43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Reintroduced from v19 into Part III; source pending.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FIG-44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Opportunity matrix for post-commodity technology bets.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Matrix</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Figure 44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Part III</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Reintroduced from v19 into Part III; source pending.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4422,6 +4422,53 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>S121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Global Antigravity Landscape Final</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Internal Visual Composite</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>_figures/exports/Global_Antigravity_Landscape_Final.png</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.mapchart.net/world.html</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Codex</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Provenance traced in-repo: visual aligns with investor/company mapping from sources/internal/20260115_VC_PE_Portfolio.xlsx (Sheet1/Sheet2); base map tool watermark indicates mapchart.net. Lineage family found in _figures/exports: Global_Map_V10_VCPE.png -&gt; Global_Map_V11_Final.png -&gt; Global_Antigravity_Landscape*.png -&gt; Global_Antigravity_Landscape_Final.png.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4433,7 +4480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6699,7 +6746,6 @@
           <t>S085, S015</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
           <t>N</t>
@@ -6715,7 +6761,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -6743,7 +6788,6 @@
           <t>S086</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
           <t>N</t>
@@ -6759,7 +6803,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -6787,7 +6830,6 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
           <t>N</t>
@@ -6803,7 +6845,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -6831,7 +6872,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
           <t>N</t>
@@ -6847,7 +6887,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -6875,7 +6914,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
           <t>N</t>
@@ -6891,7 +6929,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -6919,7 +6956,6 @@
           <t>S089, S118</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
           <t>N</t>
@@ -6935,7 +6971,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -6963,7 +6998,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
           <t>N</t>
@@ -6979,7 +7013,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7007,7 +7040,6 @@
           <t>S089, S111</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
           <t>N</t>
@@ -7023,7 +7055,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7051,7 +7082,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
           <t>N</t>
@@ -7067,7 +7097,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7095,7 +7124,6 @@
           <t>S104, S089, S113</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
           <t>N</t>
@@ -7111,7 +7139,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7139,7 +7166,6 @@
           <t>S109, S110, S105, S104</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>N</t>
@@ -7155,7 +7181,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7183,7 +7208,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
           <t>N</t>
@@ -7199,7 +7223,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7227,7 +7250,6 @@
           <t>S107, S108, S111</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
           <t>N</t>
@@ -7243,7 +7265,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7271,7 +7292,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
           <t>N</t>
@@ -7287,7 +7307,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7315,7 +7334,6 @@
           <t>S112, S117, S089</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
           <t>N</t>
@@ -7331,7 +7349,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7359,7 +7376,6 @@
           <t>S114, S056, S106, S053</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
           <t>N</t>
@@ -7375,7 +7391,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7403,7 +7418,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
           <t>N</t>
@@ -7419,7 +7433,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7447,7 +7460,6 @@
           <t>S057, S058, S089</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
           <t>N</t>
@@ -7463,7 +7475,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7491,7 +7502,6 @@
           <t>S089</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
           <t>N</t>
@@ -7507,7 +7517,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7535,7 +7544,6 @@
           <t>S089, S060, S061</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
           <t>N</t>
@@ -7551,7 +7559,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7579,7 +7586,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
           <t>N</t>
@@ -7595,7 +7601,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7623,7 +7628,6 @@
           <t>S115, S118, S117, S089</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
           <t>N</t>
@@ -7639,7 +7643,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure.</t>
@@ -7667,7 +7670,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
           <t>N</t>
@@ -7683,7 +7685,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7711,7 +7712,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
           <t>N</t>
@@ -7727,7 +7727,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7755,7 +7754,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
           <t>N</t>
@@ -7771,7 +7769,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7799,7 +7796,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
           <t>N</t>
@@ -7815,7 +7811,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7843,7 +7838,6 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
           <t>N</t>
@@ -7859,7 +7853,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7907,7 +7900,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -7955,7 +7947,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -8003,7 +7994,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -8051,7 +8041,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
@@ -8099,10 +8088,479 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
           <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>C082</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>The v19 distribution-gatekeeper layer indicates that corporatized veterinary networks, specialty retail chains, and scaled e-commerce platforms (including IVC Evidensia, Zooplus, PetSmart, and Musti) mediate demand access in the current market map [S116, Tab: Sheet1].</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>S116</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reinstated from v19 distribution-gatekeeper block.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C083</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>The hypothesis that gatekeeper concentration reallocates margin toward owned-label portfolios remains unresolved and requires direct quantification [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 1</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reinstated unresolved v19 hypothesis for follow-up validation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C084</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Legacy v19 transaction history (Blue Buffalo, Neovia, Erber Group, Nom Nom, Aker BioMarine Feed Ingredients) is reinstated as an unresolved benchmark set pending direct source mapping [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 2; Table III.1</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reinstated missing v19 transaction block with unresolved sourcing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C085</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Legacy platform signals around Vetnique-Lintbells (YuMOVE) and FoodScience are mapped in the in-repo PE/VC portfolio source [S116, Tab: Sheet1].</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>S116</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 2; Table III.1/Table III.2</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Added explicit source-backed sponsor mapping from internal portfolio workbook.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>C086</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>The v19 two-speed multiple framing (Pet roughly 15x-25x EBITDA vs Livestock/Feed roughly 8x-12x EBITDA) remains unresolved until directly source-bound [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reinstated missing v19 valuation-band context; pending source-level validation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>C087</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>The v19 investor-profile mapping is reinstated with fund-to-asset examples (JAB, Gryphon, MSCP, EQT, BC Partners, Cinven, Ani.VC) from the internal portfolio source [S116, Tab: Sheet1].</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>S116</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 3; Table III.2</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Added back missing PE/VC investor-profile layer from v19.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>C088</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Legacy buyer-mix assumptions (higher PE/financial participation in pet vs higher strategic participation in livestock/feed) remain unresolved pending deal-level coding [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 3</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reinstated unresolved v19 buyer-mix split assumptions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C089</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Legacy IPO optionality is retained, but explicit IPO comp tables are currently not source-mapped in this repository [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 3</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reinstated missing IPO-language context with unresolved source status.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>C090</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>III.2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Legacy AUM tiers and investor-size rankings referenced in v19 remain unresolved until fund-level reporting sources are attached [UNVERIFIED].</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>UNVERIFIED</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>III.2 paragraph 3</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Reinstated unresolved v19 investor-size overlays.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C091</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Global corporate, startup, and investor landscape visual added to executive summary, mapped from the internal PE/VC portfolio source and final composite image [S116, Tab: Sheet1; S121].</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>S116, S121</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Figure ES-1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>[2026-02-08] Figure ES-1 insertion and provenance mapping.</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10143,6 +10601,53 @@
       <c r="I45" t="inlineStr">
         <is>
           <t>Reintroduced from v19 into Part III; source pending.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FIG-ES-1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Global corporate, startup, and investor landscape by region.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Map</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>S116, S121</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Figure 46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Executive Summary</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Inserted in sections/01_executive_summary.md. Image file: figures/Global_Antigravity_Landscape_Final.png.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -7410,12 +7410,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Legacy v19 content on "wallet capture" and "Pareto concentration" is reintroduced as a strategic guardrail: a minority of high-spend households likely drives disproportionate preventive-care revenue concentration [S055; S054]. The exact concentration split used in internal slides remains to be revalidated against a directly citable source file and is therefore kept unresolved [UNVERIFIED].</t>
+          <t>Legacy v19 content on "wallet capture" and "Pareto concentration" is reintroduced as a strategic guardrail: a minority of high-spend households likely drives disproportionate preventive-care revenue concentration [S055; S054].</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S055, S054</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>II.3 paragraph 2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7435,7 +7440,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Cleanup pass: unresolved tail removed from section text; claim now fully source-tagged to S055/S054.</t>
         </is>
       </c>
     </row>
@@ -7872,12 +7877,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Figure 38 TAM/SAM/SOM visual is retained from legacy v19 but underlying source linkage is unresolved.</t>
+          <t>Figure 38 TAM/SAM/SOM visual is mapped to in-repo figure data tab [S089, Tab: Figure 38].</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S089</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7902,7 +7907,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Cleanup pass: source linkage resolved to S089 Figure 38.</t>
         </is>
       </c>
     </row>
@@ -7919,17 +7924,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FoodScience premium transaction rationale is retained from legacy v19 and requires direct source validation.</t>
+          <t>FoodScience appears in in-repo sponsor portfolio mapping (MSCP) and is used as transaction context in Part III table [S116, Tab: Sheet2].</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S116</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Table III.1</t>
+          <t>Table III.1 (FoodScience row)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7949,7 +7954,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Cleanup pass: row rationale normalized to traceable portfolio mapping source.</t>
         </is>
       </c>
     </row>
@@ -7966,12 +7971,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Figure 42 Margin Ladder visual is retained from legacy v19 but underlying source linkage is unresolved.</t>
+          <t>Figure 42 Margin Ladder visual is mapped to in-repo figure data tab [S089, Tab: Figure 44].</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S089</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7996,7 +8001,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Cleanup pass: source linkage resolved to S089 Figure 44.</t>
         </is>
       </c>
     </row>
@@ -8013,12 +8018,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Figure 43 Strategic Capital Allocation matrix is retained from legacy v19 but underlying source linkage is unresolved.</t>
+          <t>Figure 43 Strategic Capital Allocation matrix is mapped to in-repo figure data tab [S089, Tab: Figure 45].</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S089</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -8043,7 +8048,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Cleanup pass: source linkage resolved to S089 Figure 45.</t>
         </is>
       </c>
     </row>
@@ -8154,12 +8159,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>The hypothesis that gatekeeper concentration reallocates margin toward owned-label portfolios remains unresolved and requires direct quantification [UNVERIFIED].</t>
+          <t>The v19 distribution-gatekeeper layer includes corporatized veterinary networks, specialty retail chains, and scaled e-commerce platforms (including IVC Evidensia, Zooplus, PetSmart, and Musti) [S116, Tab: Sheet1].</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S116</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -8184,7 +8189,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reinstated unresolved v19 hypothesis for follow-up validation.</t>
+          <t>[2026-02-08] Cleanup pass: converted prior unresolved hypothesis claim to sourced gatekeeper-mapping statement.</t>
         </is>
       </c>
     </row>
@@ -10293,7 +10298,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S089</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -10318,7 +10323,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Reintroduced from v19 into Part III; source pending.</t>
+          <t>[2026-02-08] Cleanup pass: resolved from UNVERIFIED to S089 Figure 38.</t>
         </is>
       </c>
     </row>
@@ -10481,12 +10486,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S089</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Figure 42</t>
+          <t>Figure 44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -10506,7 +10511,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Reintroduced from v19 into Part III; source pending.</t>
+          <t>[2026-02-08] Cleanup pass: resolved from UNVERIFIED to S089 Figure 44 (margin ladder).</t>
         </is>
       </c>
     </row>
@@ -10528,12 +10533,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S089</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Figure 43</t>
+          <t>Figure 45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -10553,7 +10558,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Reintroduced from v19 into Part III; source pending.</t>
+          <t>[2026-02-08] Cleanup pass: resolved from UNVERIFIED to S089 Figure 45 (strategic matrix).</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4466,6 +4466,168 @@
       <c r="I122" t="inlineStr">
         <is>
           <t>Provenance traced in-repo: visual aligns with investor/company mapping from sources/internal/20260115_VC_PE_Portfolio.xlsx (Sheet1/Sheet2); base map tool watermark indicates mapchart.net. Lineage family found in _figures/exports: Global_Map_V10_VCPE.png -&gt; Global_Map_V11_Final.png -&gt; Global_Antigravity_Landscape*.png -&gt; Global_Antigravity_Landscape_Final.png.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>S122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>sources/articles/FeedAdditive_ROI_3to1.txt</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Feed &amp; Additive Magazine</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Phytogenic Feed Additives ROI</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>S123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>sources/articles/PetFoodInd_UrbanSuburban.txt</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Petfood Industry</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Urban vs Suburban Purchasing Habits</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>S124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>sources/regulatory/MARA_Announcement_194_Summary.txt</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>MARA China</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>China AGP Ban Announcement 194</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>S125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>sources/reports/Sector_Deal_Multiples_2020-2024.txt</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Public Financial Data</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Sector Deal Multiples Assessment</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>S126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>sources/regulatory/EU_Green_Claims_Directive_Summary.txt</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>EU Commission</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Green Claims Directive Proposal</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>S127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>sources/academic/Nutrigenomics_Review_Summary.txt</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Frontiers / NIH</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Nutrigenomics Review</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7367,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S123</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7289,7 +7451,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S122</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7672,7 +7834,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7714,7 +7876,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7756,7 +7918,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S126</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7798,7 +7960,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S127</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7840,7 +8002,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S124</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8211,7 +8373,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -8305,7 +8467,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S125</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -4477,22 +4477,42 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>sources/articles/FeedAdditive_ROI_3to1.txt</t>
+          <t>Feed Additive ROI 3:1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Feed &amp; Additive Magazine</t>
+          <t>Article Summary</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Phytogenic Feed Additives ROI</t>
+          <t>sources/articles/S122_wattagnet_phytogenic_roi.pdf</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>https://www.wattagnet.com/animal-health/article/15535560/phytogenic-feed-additives-deliver-roi</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Primary web capture PDF. Supporting captures: sources/articles/S122_feedandadditive_phytogenic_roi.pdf; sources/articles/S122_ew_nutrition_phytogenics.pdf. Legacy summary retained at sources/articles/FeedAdditive_ROI_3to1.txt.</t>
         </is>
       </c>
     </row>
@@ -4504,22 +4524,42 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>sources/articles/PetFoodInd_UrbanSuburban.txt</t>
+          <t>Urban vs Suburban Pet Habits</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Petfood Industry</t>
+          <t>Article Summary</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Urban vs Suburban Purchasing Habits</t>
+          <t>sources/articles/S123_petfoodindustry_urban_suburban.pdf</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>https://www.petfoodindustry.com/nutrition/article/15468763/urban-vs-suburban-pet-owners-purchasing-habits</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Primary web capture PDF. Legacy summary retained at sources/articles/PetFoodInd_UrbanSuburban.txt.</t>
         </is>
       </c>
     </row>
@@ -4531,22 +4571,42 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>sources/regulatory/MARA_Announcement_194_Summary.txt</t>
+          <t>MARA Announcement 194 Summary</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MARA China</t>
+          <t>Regulatory Summary</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>China AGP Ban Announcement 194</t>
+          <t>sources/regulatory/S124_moa_announcement_194.pdf</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
+          <t>http://www.moa.gov.cn/govpublic/xmsyj/201912/t20191227_6334005.htm</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Primary regulatory web capture PDF. Supporting captures: sources/regulatory/S124_feedstrategy_china_agp_ban.pdf; sources/regulatory/S124_mordor_china_feed_additives_market.pdf. Legacy summary retained at sources/regulatory/MARA_Announcement_194_Summary.txt.</t>
         </is>
       </c>
     </row>
@@ -4558,22 +4618,42 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sources/reports/Sector_Deal_Multiples_2020-2024.txt</t>
+          <t>Sector Deal Multiples 2020-2024</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Public Financial Data</t>
+          <t>Transaction Summary</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Sector Deal Multiples Assessment</t>
+          <t>sources/reports/S125_prnewswire_hh_zesty_paws.pdf</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>https://www.prnewswire.com/news-releases/hh-group-acquires-zesty-paws-301361559.html</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Primary transaction web capture PDF. Supporting captures: sources/reports/S125_generalmills_bluebuffalo.pdf; sources/reports/S125_swedencare_naturvet_press.pdf; sources/reports/S125_zoetis_mfa_phibro.pdf; sources/reports/S125_dsm_erber_group.pdf. Legacy summary retained at sources/reports/Sector_Deal_Multiples_2020-2024.txt. Historical Nasdaq link used in prior summary is no longer accessible.</t>
         </is>
       </c>
     </row>
@@ -4585,22 +4665,42 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sources/regulatory/EU_Green_Claims_Directive_Summary.txt</t>
+          <t>EU Green Claims Directive Summary</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EU Commission</t>
+          <t>Regulatory Summary</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Green Claims Directive Proposal</t>
+          <t>sources/regulatory/S126_ec_green_claims.pdf</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>https://environment.ec.europa.eu/topics/circular-economy/green-claims_en</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Primary EU web capture PDF. Supporting capture: sources/regulatory/S126_europarl_green_claims_train.pdf. Legacy summary retained at sources/regulatory/EU_Green_Claims_Directive_Summary.txt.</t>
         </is>
       </c>
     </row>
@@ -4612,22 +4712,42 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sources/academic/Nutrigenomics_Review_Summary.txt</t>
+          <t>Nutrigenomics Review Summary</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Frontiers / NIH</t>
+          <t>Academic Summary</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Nutrigenomics Review</t>
+          <t>sources/academic/S127_frontiers_nutrigenomics_review.pdf</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>https://www.frontiersin.org/journals/veterinary-science/articles/10.3389/fvets.2020.00346/full</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Primary academic web capture PDF. Supporting capture: sources/academic/S127_ncbi_pmc7575754.pdf. Legacy summary retained at sources/academic/Nutrigenomics_Review_Summary.txt.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4748,6 +4748,48 @@
       <c r="I128" t="inlineStr">
         <is>
           <t>Primary academic web capture PDF. Supporting capture: sources/academic/S127_ncbi_pmc7575754.pdf. Legacy summary retained at sources/academic/Nutrigenomics_Review_Summary.txt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>S128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Legacy v18 Reference Archive</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Internal Legacy Document</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>sources/internal/S128_legacy_v18_reference.docx</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Codex</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Canonical legacy benchmark source copied from _output/archive/v18.docx into sources/internal to avoid circular source dependency on generated outputs. Used for reinstated legacy tables, investor map extensions, and Figure 44 context.</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7193,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S128</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>I.2 historical note (deprecated)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7171,7 +7218,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Deprecated from active section wording; retained for audit trail and mapped to legacy v18 source S128.</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7235,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cross-sectional benchmarking still indicates that scientific substantiation and R&amp;D intensity correlate with superior margin capture. In the benchmark set, companies with stronger clinical positioning and higher R&amp;D commitment outperform low-evidence profiles on EBITDA structure and channel resilience [S089, Tab: Figure 5]. The specific threshold convention (&gt;5% R&amp;D and &gt;20% EBITDA as a repeatable premium signal) is retained from prior work and remains unresolved until direct source-level confirmation [UNVERIFIED].</t>
+          <t>The specific threshold convention used in prior internal work (&gt;5% R&amp;D and &gt;20% EBITDA as repeatable premium signal) remains unresolved and stays flagged [UNVERIFIED].</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7196,6 +7243,11 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>I.2 paragraph 2</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>N</t>
@@ -7213,7 +7265,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Active unresolved claim in section text; threshold heuristic still lacks direct source binding.</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7324,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>On the companion side, mobility remains the largest mapped pool ($776M), with cognitive support ($312M) and behavioral wellness ($239M) as structurally growing niches in aging-pet demand curves [S089, Tab: Figure 18]. The v19 thematic overlays around natural ectoparasite defense and pre-senior protocolization are retained as strategic hypotheses, but their exact monetization splits remain pending direct source mapping [UNVERIFIED].</t>
+          <t>Specific monetization splits for selected overlays in the 11-segment matrix remain unresolved and are retained transparently [UNVERIFIED].</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7280,6 +7332,11 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I.3 paragraph 3</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>N</t>
@@ -7297,7 +7354,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Active unresolved claim in section text (overlay monetization splits).</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7413,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>To preserve missing legacy signal without overstating certainty, we keep two conclusions explicit: first, comparative segment economics favor validated functional categories over generic actives; second, ingredient-share concentration appears higher in clinically evidenced categories than in commodity categories [UNVERIFIED]. These are carried forward for follow-up verification in the unresolved claims tracker before publication sign-off [UNVERIFIED].</t>
+          <t>Comparative concentration assumptions across validated versus commodity categories remain unresolved and are retained transparently [UNVERIFIED].</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -7364,6 +7421,11 @@
           <t>UNVERIFIED</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I.3 paragraph 3</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>N</t>
@@ -7381,7 +7443,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Active unresolved claim in section text (concentration assumptions).</t>
         </is>
       </c>
     </row>
@@ -7865,12 +7927,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>The strategic-opportunity framing from v19 is also retained: broad animal-health TAM, narrower nutraceutical SAM, and an execution-level SOM for prioritized platforms [S104; S089, Tab: Figure 4]. The specific "~$250M target SOM" figure used in legacy internal work is not currently backed by a directly citable source file and remains unresolved [UNVERIFIED].</t>
+          <t>The specific legacy SOM point estimate is retained as a legacy benchmark from v18/v19 source material [S128].</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S128</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>III.1 paragraph 3</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7890,7 +7957,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Resolved from UNVERIFIED to S128 after adding canonical legacy source artifact.</t>
         </is>
       </c>
     </row>
@@ -8347,12 +8414,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Figure 44 Opportunity matrix is retained from legacy v19 but underlying source linkage is unresolved.</t>
+          <t>Figure 44 Opportunity matrix is sourced to legacy v18 benchmark material [S128].</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S128</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -8377,7 +8444,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reintegrated from v19 under 3x3 structure. Pending source resolution in UNVERIFIED_CLAIMS.md.</t>
+          <t>[2026-02-08] Resolved from UNVERIFIED to S128.</t>
         </is>
       </c>
     </row>
@@ -8681,12 +8748,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S128</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>III.2 paragraph 3</t>
+          <t>III.2 legacy note (deprecated)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -8706,7 +8773,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reinstated unresolved v19 buyer-mix split assumptions.</t>
+          <t>[2026-02-08] Deprecated from active section text; retained for audit trail and mapped to S128.</t>
         </is>
       </c>
     </row>
@@ -8728,12 +8795,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S128</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>III.2 paragraph 3</t>
+          <t>III.2 legacy note (deprecated)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -8753,7 +8820,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reinstated missing IPO-language context with unresolved source status.</t>
+          <t>[2026-02-08] Deprecated from active section text; retained for audit trail and mapped to S128.</t>
         </is>
       </c>
     </row>
@@ -8775,12 +8842,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S128</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>III.2 paragraph 3</t>
+          <t>III.2 legacy note (deprecated)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -8800,7 +8867,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>[2026-02-08] Reinstated unresolved v19 investor-size overlays.</t>
+          <t>[2026-02-08] Deprecated from active section text; retained for audit trail and mapped to S128.</t>
         </is>
       </c>
     </row>
@@ -10862,7 +10929,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S128</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -10877,7 +10944,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Reviewed</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -10887,7 +10954,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Reintroduced from v19 into Part III; source pending.</t>
+          <t>[2026-02-08] Resolved from UNVERIFIED to S128 after adding canonical legacy source artifact in sources/internal.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -7235,12 +7235,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The specific threshold convention used in prior internal work (&gt;5% R&amp;D and &gt;20% EBITDA as repeatable premium signal) remains unresolved and stays flagged [UNVERIFIED].</t>
+          <t>R&amp;D intensity and EBITDA relationships are context-dependent: pharma-led models often combine high R&amp;D with high EBITDA, while pure-play nutraceutical models can also exceed 20% EBITDA via brand, M&amp;A, and channel execution [S115; S120; S119; S118].</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S115, S120, S119, S118</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[2026-02-08] Active unresolved claim in section text; threshold heuristic still lacks direct source binding.</t>
+          <t>[2026-02-08] Resolved from UNVERIFIED using multi-company filing evidence (Zoetis, Dechra, Virbac, Swedencare) and updated context-specific wording.</t>
         </is>
       </c>
     </row>
@@ -7324,12 +7324,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Specific monetization splits for selected overlays in the 11-segment matrix remain unresolved and are retained transparently [UNVERIFIED].</t>
+          <t>Legacy overlay dollar splits in the 11-segment matrix should be treated as scoped indicators rather than global totals when benchmarked against broader category baselines [S118; S089, Tab: Figure 18].</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S118, S089</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[2026-02-08] Active unresolved claim in section text (overlay monetization splits).</t>
+          <t>[2026-02-08] Resolved from UNVERIFIED by re-scoping legacy split interpretation with sourced category baseline context.</t>
         </is>
       </c>
     </row>
@@ -7413,12 +7413,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Comparative concentration assumptions across validated versus commodity categories remain unresolved and are retained transparently [UNVERIFIED].</t>
+          <t>Concentration assumptions are best interpreted through evidence-tier and IP-control dynamics rather than a single global split [S117; S118; S089, Tab: Figure 18].</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>UNVERIFIED</t>
+          <t>S117, S118, S089</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[2026-02-08] Active unresolved claim in section text (concentration assumptions).</t>
+          <t>[2026-02-08] Resolved from UNVERIFIED using sourcing on IP-led category concentration and evidence-tier framing.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I447"/>
+  <dimension ref="A1:I463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16781,6 +16781,630 @@
       <c r="I447" t="inlineStr">
         <is>
           <t>Imported from deep-research works cited pack (2026-02-08). Fallback capture via curl succeeded. Capture appears access-limited/challenge-gated; review URL manually if full content extraction is required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>S447</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Nutrigenomics Review Summary</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>sources/academic/Nutrigenomics_Review_Summary.txt</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Added from unregistered in-repo source file.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>S448</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>ncbi pmc7575754</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>sources/academic/S127_ncbi_pmc7575754.pdf</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S127.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>S449</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>FeedAdditive ROI 3to1</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>sources/articles/FeedAdditive_ROI_3to1.txt</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Added from unregistered in-repo source file.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>S450</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>PetFoodInd UrbanSuburban</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>sources/articles/PetFoodInd_UrbanSuburban.txt</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Added from unregistered in-repo source file.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>S451</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>ew nutrition phytogenics</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>sources/articles/S122_ew_nutrition_phytogenics.pdf</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S122.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>S452</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>feedandadditive phytogenic roi</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>sources/articles/S122_feedandadditive_phytogenic_roi.pdf</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S122.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>S453</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>EU Green Claims Directive Summary</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>regulatory</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>sources/regulatory/EU_Green_Claims_Directive_Summary.txt</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Added from unregistered in-repo source file.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>S454</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>MARA Announcement 194 Summary</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>regulatory</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>sources/regulatory/MARA_Announcement_194_Summary.txt</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Added from unregistered in-repo source file.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>S455</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>feedstrategy china agp ban</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>regulatory</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>sources/regulatory/S124_feedstrategy_china_agp_ban.pdf</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S124.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>S456</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>mordor china feed additives market</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>regulatory</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>sources/regulatory/S124_mordor_china_feed_additives_market.pdf</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S124.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>S457</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>europarl green claims train</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>regulatory</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>sources/regulatory/S126_europarl_green_claims_train.pdf</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S126.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>S458</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>dsm erber group</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>sources/reports/S125_dsm_erber_group.pdf</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S125.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>S459</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>generalmills bluebuffalo</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>sources/reports/S125_generalmills_bluebuffalo.pdf</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S125.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>S460</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>swedencare naturvet press</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>sources/reports/S125_swedencare_naturvet_press.pdf</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S125.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>S461</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>zoetis mfa phibro</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>sources/reports/S125_zoetis_mfa_phibro.pdf</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Alternate local capture related to S125.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>S462</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Sector Deal Multiples 2020 2024</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>sources/reports/Sector_Deal_Multiples_2020-2024.txt</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>QA pass registration (author instruction: never delete). Added from unregistered in-repo source file.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Elanco Investor Deck</t>
+          <t>Animal Health VC/PE Portfolio Mapping</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Global Antigravity Landscape Final</t>
+          <t>Global Ecosystem Landscape Map</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -16805,8 +16805,6 @@
           <t>sources/academic/Nutrigenomics_Review_Summary.txt</t>
         </is>
       </c>
-      <c r="E448" t="inlineStr"/>
-      <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -16844,8 +16842,6 @@
           <t>sources/academic/S127_ncbi_pmc7575754.pdf</t>
         </is>
       </c>
-      <c r="E449" t="inlineStr"/>
-      <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -16883,8 +16879,6 @@
           <t>sources/articles/FeedAdditive_ROI_3to1.txt</t>
         </is>
       </c>
-      <c r="E450" t="inlineStr"/>
-      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -16922,8 +16916,6 @@
           <t>sources/articles/PetFoodInd_UrbanSuburban.txt</t>
         </is>
       </c>
-      <c r="E451" t="inlineStr"/>
-      <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -16961,8 +16953,6 @@
           <t>sources/articles/S122_ew_nutrition_phytogenics.pdf</t>
         </is>
       </c>
-      <c r="E452" t="inlineStr"/>
-      <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17000,8 +16990,6 @@
           <t>sources/articles/S122_feedandadditive_phytogenic_roi.pdf</t>
         </is>
       </c>
-      <c r="E453" t="inlineStr"/>
-      <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17039,8 +17027,6 @@
           <t>sources/regulatory/EU_Green_Claims_Directive_Summary.txt</t>
         </is>
       </c>
-      <c r="E454" t="inlineStr"/>
-      <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17078,8 +17064,6 @@
           <t>sources/regulatory/MARA_Announcement_194_Summary.txt</t>
         </is>
       </c>
-      <c r="E455" t="inlineStr"/>
-      <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17117,8 +17101,6 @@
           <t>sources/regulatory/S124_feedstrategy_china_agp_ban.pdf</t>
         </is>
       </c>
-      <c r="E456" t="inlineStr"/>
-      <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17156,8 +17138,6 @@
           <t>sources/regulatory/S124_mordor_china_feed_additives_market.pdf</t>
         </is>
       </c>
-      <c r="E457" t="inlineStr"/>
-      <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17195,8 +17175,6 @@
           <t>sources/regulatory/S126_europarl_green_claims_train.pdf</t>
         </is>
       </c>
-      <c r="E458" t="inlineStr"/>
-      <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17234,8 +17212,6 @@
           <t>sources/reports/S125_dsm_erber_group.pdf</t>
         </is>
       </c>
-      <c r="E459" t="inlineStr"/>
-      <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17273,8 +17249,6 @@
           <t>sources/reports/S125_generalmills_bluebuffalo.pdf</t>
         </is>
       </c>
-      <c r="E460" t="inlineStr"/>
-      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17312,8 +17286,6 @@
           <t>sources/reports/S125_swedencare_naturvet_press.pdf</t>
         </is>
       </c>
-      <c r="E461" t="inlineStr"/>
-      <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17351,8 +17323,6 @@
           <t>sources/reports/S125_zoetis_mfa_phibro.pdf</t>
         </is>
       </c>
-      <c r="E462" t="inlineStr"/>
-      <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17390,8 +17360,6 @@
           <t>sources/reports/Sector_Deal_Multiples_2020-2024.txt</t>
         </is>
       </c>
-      <c r="E463" t="inlineStr"/>
-      <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr">
         <is>
           <t>2026-02-08</t>
@@ -17419,7 +17387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21533,6 +21501,195 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>C092</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Nutraceutical was first defined in 1989 as a food (or part of a food) providing medical or health benefits including disease prevention/treatment.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>S403</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Added definition sentence in executive summary during QA flow pass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C093</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>I.3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Global pet supplements were estimated at USD 2.26B in 2024 and projected to grow at 5.9% CAGR (2025-2030).</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>S416</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Meta description</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Added explicit market-size/CAGR quantification in Part I segment discussion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C094</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>I.1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Regulatory comparison figure expanded to four jurisdictions (US, EU, UK, China) with route-specific claim/entry differences.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>S085, S015, S124</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Table / figure synthesis</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Figure 1 scope widened and narrative updated in Part I.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>C095</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>I.3</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Functional segment values in Part I include Gut Health USD 2,913M, Delivery Systems USD 2,749M, Immunity USD 1,841M, and Performance/FCR USD 1,426M.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Tab: Figure 18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Added during segment quantification enrichment pass.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21544,7 +21701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21623,7 +21780,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S089</t>
+          <t>S109, S110</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -21644,6 +21801,11 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Developed-market ownership chart regenerated; Mexico removed per QA.</t>
         </is>
       </c>
     </row>
@@ -22421,7 +22583,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>S089</t>
+          <t>S115, S116</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -22442,6 +22604,11 @@
       <c r="H21" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Axis labeling clarified for pharma integration funnel.</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22677,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S089</t>
+          <t>S089, S115, S117, S118, S119, S120, S125</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -22535,7 +22702,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+          <t>Regenerated with 15-company labeling and corrected high-R&amp;D/high-margin quadrant cue.</t>
         </is>
       </c>
     </row>
@@ -23215,7 +23382,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>S089</t>
+          <t>S085, S015, S124</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -23240,7 +23407,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+          <t>Expanded to include UK and China in regulatory comparison.</t>
         </is>
       </c>
     </row>
@@ -23591,7 +23758,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>S116, S121</t>
+          <t>S121, S116</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -23616,7 +23783,101 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Inserted in sections/01_executive_summary.md. Image file: figures/Global_Antigravity_Landscape_Final.png.</t>
+          <t>Source naming refined for clarity in executive summary.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FIG-II-1-S</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Figure II.1 (Simplified): Functional needs across companion and production species.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>heatmap</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>S089, S116</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Figure 18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Added for simplified index readability per author QA pass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FIG-II-12-S</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Figure II.12 (Simplified): Comparative economic value by segment and primary sector.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>stacked_bar</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>S089</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Figure 18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Part I</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Added for simplified index readability per author QA pass.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -21683,7 +21683,6 @@
           <t>2026-02-08</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
           <t>Added during segment quantification enrichment pass.</t>
@@ -23810,7 +23809,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Figure 18</t>
+          <t>Figure 47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -23830,7 +23829,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Added for simplified index readability per author QA pass.</t>
+          <t>Simplified species-need matrix sourced from Figure 47 tab.</t>
         </is>
       </c>
     </row>
@@ -23857,7 +23856,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Figure 18</t>
+          <t>Figure 48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -23877,7 +23876,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Added for simplified index readability per author QA pass.</t>
+          <t>Simplified economic comparison sourced from Figure 48 tab.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sections" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -29,8 +28,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -42,8 +44,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F4E79"/>
-        <bgColor rgb="001F4E79"/>
+        <fgColor rgb="FF1F4E79"/>
+        <bgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
   </fills>
@@ -66,7 +68,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -431,16 +433,16 @@
   </sheetPr>
   <dimension ref="A1:I463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="85" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="9" max="9"/>
   </cols>
@@ -17387,13 +17389,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
@@ -21686,6 +21688,147 @@
       <c r="J96" t="inlineStr">
         <is>
           <t>Added during segment quantification enrichment pass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C096</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>I.1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>US GRAS workflow is a staged process (intended use definition, safety dossier, expert recognition, and claim-boundary alignment).</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>S403; S085</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>sections/02_part_i_structural_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Added in regulatory expansion pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>C097</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>II.2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2018-2023 poultry index CAGR is approximately +2.0%, while bovine/pigs/sheep-goat trend negative on the same base.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>S111; CALCULATION</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>sections/03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Computed from Figure 22 series</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>C098</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>II.2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2015-2030 mobility mix implies UC-II share CAGR ~+12.9% vs generic share decline ~-4.5%.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>S106; S057; CALCULATION</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>sections/03_part_ii_strategic_bifurcation.md</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Computed from Figure 32 series</t>
         </is>
       </c>
     </row>
@@ -21700,13 +21843,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -22135,12 +22278,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Updated</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Re-rendered to fix corrupted display in report (Figure 22/32 placement).</t>
         </is>
       </c>
     </row>
@@ -22387,12 +22535,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Updated</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Re-rendered to fix corrupted display in report (Figure 22/32 placement).</t>
         </is>
       </c>
     </row>
@@ -22644,17 +22797,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Reviewed</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook. Restyled to match reference design; regenerated from figures_data.xlsx.</t>
         </is>
       </c>
     </row>
@@ -23255,17 +23408,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Reviewed</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook.</t>
+          <t>[AUDIT 2026-02-08] excel_tab remapped to canonical figures_data workbook. Restyled to match reference design; regenerated from figures_data.xlsx.</t>
         </is>
       </c>
     </row>
@@ -23433,7 +23586,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Figure 38</t>
+          <t>Figure 4</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -23448,12 +23601,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[2026-02-08] Cleanup pass: resolved from UNVERIFIED to S089 Figure 38.</t>
+          <t>[2026-02-08] Cleanup pass: resolved from UNVERIFIED to S089 Figure 38. | 2026-02-09: Updated figure renderer to prevent label overlap in TAM/SAM/SOM funnel; labels moved outside rings for readability. | 2026-02-09: excel_tab corrected to canonical figures_data tab 'Figure 4'.</t>
         </is>
       </c>
     </row>
@@ -23527,7 +23680,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Figure 40</t>
+          <t>Figure 42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -23542,12 +23695,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Reintroduced from v19 into Part III.</t>
+          <t>Reintroduced from v19 into Part III. | 2026-02-09: Expanded company universe to align with Figure 5 peer set; capability marks shown where auditable data exists, blanks otherwise. | 2026-02-09: excel_tab corrected to canonical figures_data tab 'Figure 42'. Restyled to match reference design; regenerated from figures_data.xlsx.</t>
         </is>
       </c>
     </row>
@@ -23683,12 +23836,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[2026-02-08] Cleanup pass: resolved from UNVERIFIED to S089 Figure 45 (strategic matrix).</t>
+          <t>[2026-02-08] Cleanup pass: resolved from UNVERIFIED to S089 Figure 45 (strategic matrix). Restyled to match reference design; regenerated from figures_data.xlsx.</t>
         </is>
       </c>
     </row>
@@ -23794,7 +23947,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Figure II.1 (Simplified): Functional needs across companion and production species.</t>
+          <t>Figure 47: Functional needs across companion and production species (simplified).</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -23814,22 +23967,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Part I</t>
+          <t>Appendices</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>Reviewed</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Simplified species-need matrix sourced from Figure 47 tab.</t>
+          <t>Appendix extended figure; mapped from legacy II.1 label into global numbering.</t>
         </is>
       </c>
     </row>
@@ -23841,7 +23994,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Figure II.12 (Simplified): Comparative economic value by segment and primary sector.</t>
+          <t>Figure 48: Comparative economic value by segment and primary sector (simplified).</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -23861,22 +24014,116 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Part I</t>
+          <t>Appendices</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>Reviewed</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Simplified economic comparison sourced from Figure 48 tab.</t>
+          <t>Appendix extended figure; mapped from legacy II.12 label into global numbering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FIG-49</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Revenue architecture across pharma-linked, feed-linked, and consumer-led models (appended image figure).</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Chart (appended image)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>S115, S117, S118, S119, S120</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Figure 49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Appendices (document end)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Inserted at end of DOCX per user instruction; no in-body text modifications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FIG-50</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024 Competitive Landscape: Revenue Scale Comparison (appended image figure).</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Chart (appended image)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>S115, S117, S118, S119, S120</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Figure 50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Appendices (document end)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Reviewed</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Appended after Figure 49; numbering synchronized with DOCX.</t>
         </is>
       </c>
     </row>
@@ -23897,14 +24144,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="45" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -22226,7 +22226,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Figure 8</t>
+          <t>Figure Cattle Inventory</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -22236,12 +22236,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Updated</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-09] Renderer remapped to dedicated cattle tab; restored from Figure8_Cattle_Inventory.csv (LATAM/India scaled).</t>
         </is>
       </c>
     </row>
@@ -22268,7 +22273,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Figure 9</t>
+          <t>Figure 28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -22288,7 +22293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Re-rendered to fix corrupted display in report (Figure 22/32 placement).</t>
+          <t>Re-rendered to fix corrupted display in report (Figure 22/32 placement). | [AUDIT 2026-02-09] Confirmed line-series source tab for Figure 22 display.</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22320,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Figure 11</t>
+          <t>Figure 27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -22325,12 +22330,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Updated</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-09] Renderer remapped to aquaculture species tab.</t>
         </is>
       </c>
     </row>
@@ -22357,7 +22367,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Figure 11</t>
+          <t>Figure 29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -22367,12 +22377,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Updated</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[AUDIT 2026-02-09] Renderer remapped to format-compliance tab.</t>
         </is>
       </c>
     </row>

--- a/_registry/source_registry.xlsx
+++ b/_registry/source_registry.xlsx
@@ -24056,17 +24056,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Revenue architecture across pharma-linked, feed-linked, and consumer-led models (appended image figure).</t>
+          <t>Strategic actor ecosystem map using in-repo company logo badges.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Chart (appended image)</t>
+          <t>Ecosystem map</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>S115, S117, S118, S119, S120</t>
+          <t>S116, S128</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Appendices (document end)</t>
+          <t>Appendix B</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -24086,12 +24086,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Inserted at end of DOCX per user instruction; no in-body text modifications.</t>
+          <t>Reassigned FIG-49 from prior appended revenue chart to actor-ecosystem map generated from figures_data Figure 49 tab and in-repo logo badges.</t>
         </is>
       </c>
     </row>
